--- a/oeb_nivel_de_atividade.xlsx
+++ b/oeb_nivel_de_atividade.xlsx
@@ -24279,10 +24279,10 @@
         <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>0.119</v>
+        <v>0.1189</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0416</v>
+        <v>-0.0459</v>
       </c>
     </row>
     <row r="3">
@@ -24313,15 +24313,15 @@
         <v>78</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1457</v>
+        <v>0.1458</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0076</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99.521886717546</v>
+        <v>99.8980511347252</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>40210</v>
@@ -24330,15 +24330,15 @@
         <v>76</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2071</v>
+        <v>0.2068</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0048</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99.0170807462589</v>
+        <v>99.0147082873893</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>40210</v>
@@ -24347,15 +24347,15 @@
         <v>77</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1545</v>
+        <v>0.1546</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0098</v>
+        <v>-0.0099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100.504592387604</v>
+        <v>100.501145750174</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>40210</v>
@@ -24372,7 +24372,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107.307818530219</v>
+        <v>107.862479795834</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>40238</v>
@@ -24381,15 +24381,15 @@
         <v>76</v>
       </c>
       <c r="D8" t="n">
-        <v>0.401</v>
+        <v>0.3996</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0782</v>
+        <v>0.0797</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100.563142206699</v>
+        <v>100.556044410692</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>40238</v>
@@ -24398,7 +24398,7 @@
         <v>77</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1612</v>
+        <v>0.161</v>
       </c>
       <c r="E9" t="n">
         <v>0.0156</v>
@@ -24406,7 +24406,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>102.981653058569</v>
+        <v>102.984296113493</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>40238</v>
@@ -24415,15 +24415,15 @@
         <v>78</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1294</v>
+        <v>0.1298</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0246</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>109.402116502395</v>
+        <v>109.715199556224</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>40269</v>
@@ -24432,15 +24432,15 @@
         <v>76</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3359</v>
+        <v>0.3357</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0195</v>
+        <v>0.0172</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>101.737789346849</v>
+        <v>101.742972867408</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>40269</v>
@@ -24449,15 +24449,15 @@
         <v>77</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1634</v>
+        <v>0.1635</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0117</v>
+        <v>0.0118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>102.225216656895</v>
+        <v>102.23842556191</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>40269</v>
@@ -24469,12 +24469,12 @@
         <v>0.1033</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0073</v>
+        <v>-0.0072</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>107.97976664409</v>
+        <v>108.271596019542</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>40299</v>
@@ -24483,15 +24483,15 @@
         <v>76</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3586</v>
+        <v>0.3589</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.013</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>101.13256605421</v>
+        <v>101.137540795773</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>40299</v>
@@ -24503,12 +24503,12 @@
         <v>0.1478</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0059</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>101.587392023248</v>
+        <v>101.593429257149</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>40299</v>
@@ -24520,12 +24520,12 @@
         <v>0.0758</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0062</v>
+        <v>-0.0063</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>107.916385287625</v>
+        <v>108.192800523022</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>40330</v>
@@ -24534,15 +24534,15 @@
         <v>76</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2623</v>
+        <v>0.2628</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0006</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>100.908081084759</v>
+        <v>100.903264479097</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>40330</v>
@@ -24551,15 +24551,15 @@
         <v>77</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1261</v>
+        <v>0.1259</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0022</v>
+        <v>-0.0023</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>101.303664313825</v>
+        <v>101.301588274512</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>40330</v>
@@ -24568,15 +24568,15 @@
         <v>78</v>
       </c>
       <c r="D19" t="n">
-        <v>0.073</v>
+        <v>0.0731</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0028</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>107.0534153015</v>
+        <v>107.307209182582</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>40360</v>
@@ -24585,15 +24585,15 @@
         <v>76</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2367</v>
+        <v>0.2373</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.008</v>
+        <v>-0.0082</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100.832790007504</v>
+        <v>100.82315722044</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>40360</v>
@@ -24602,15 +24602,15 @@
         <v>77</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1118</v>
+        <v>0.1119</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0007</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>100.565807474933</v>
+        <v>100.578366448134</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>40360</v>
@@ -24619,15 +24619,15 @@
         <v>78</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0486</v>
+        <v>0.0487</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0073</v>
+        <v>-0.0071</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>106.732727981861</v>
+        <v>107.051291415663</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>40391</v>
@@ -24636,15 +24636,15 @@
         <v>76</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2995</v>
+        <v>0.3001</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.003</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>99.2125205113295</v>
+        <v>99.2269393542957</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>40391</v>
@@ -24653,15 +24653,15 @@
         <v>77</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0749</v>
+        <v>0.0751</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0161</v>
+        <v>-0.0158</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>100.010269504145</v>
+        <v>99.9824256342573</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>40391</v>
@@ -24670,15 +24670,15 @@
         <v>78</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0356</v>
+        <v>0.0352</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0055</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>109.629008591495</v>
+        <v>109.917726495278</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>40422</v>
@@ -24687,15 +24687,15 @@
         <v>76</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1818</v>
+        <v>0.1824</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0271</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>98.6053969731156</v>
+        <v>98.6192328509077</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>40422</v>
@@ -24712,7 +24712,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>101.931149104257</v>
+        <v>101.920258199487</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>40422</v>
@@ -24721,15 +24721,15 @@
         <v>78</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0491</v>
+        <v>0.049</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0192</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104.250500996007</v>
+        <v>104.61341378512</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>40452</v>
@@ -24738,15 +24738,15 @@
         <v>76</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0739</v>
+        <v>0.0736</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.0491</v>
+        <v>-0.0483</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>98.5569062505477</v>
+        <v>98.5546330814819</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>40452</v>
@@ -24758,12 +24758,12 @@
         <v>0.0379</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0005</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>101.816184919404</v>
+        <v>101.817736041869</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>40452</v>
@@ -24775,12 +24775,12 @@
         <v>0.0302</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0011</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>113.324488804522</v>
+        <v>113.774583444481</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>40483</v>
@@ -24789,15 +24789,15 @@
         <v>76</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1242</v>
+        <v>0.1236</v>
       </c>
       <c r="E32" t="n">
-        <v>0.087</v>
+        <v>0.0876</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>99.6831512806178</v>
+        <v>99.6932077098707</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>40483</v>
@@ -24809,12 +24809,12 @@
         <v>0.0299</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0114</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>101.401596395424</v>
+        <v>101.395850781677</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>40483</v>
@@ -24823,7 +24823,7 @@
         <v>78</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0191</v>
+        <v>0.0192</v>
       </c>
       <c r="E34" t="n">
         <v>-0.0041</v>
@@ -24831,7 +24831,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111.555626267453</v>
+        <v>112.004961664865</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>40513</v>
@@ -24840,7 +24840,7 @@
         <v>76</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0691</v>
+        <v>0.0686</v>
       </c>
       <c r="E35" t="n">
         <v>-0.0156</v>
@@ -24848,7 +24848,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>100.448822251423</v>
+        <v>100.445581857242</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>40513</v>
@@ -24857,15 +24857,15 @@
         <v>77</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0268</v>
+        <v>0.0267</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0077</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>102.340361713641</v>
+        <v>102.328487906194</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>40513</v>
@@ -24874,15 +24874,15 @@
         <v>78</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0311</v>
+        <v>0.0312</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0093</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>107.075649648929</v>
+        <v>107.158213152274</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>40544</v>
@@ -24891,15 +24891,15 @@
         <v>76</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0708</v>
+        <v>0.0716</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.0402</v>
+        <v>-0.0433</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>100.575587338339</v>
+        <v>100.573639257204</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>40544</v>
@@ -24908,7 +24908,7 @@
         <v>77</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0058</v>
+        <v>0.0057</v>
       </c>
       <c r="E39" t="n">
         <v>0.0013</v>
@@ -24916,7 +24916,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>102.414067010022</v>
+        <v>102.419203385854</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>40544</v>
@@ -24925,15 +24925,15 @@
         <v>78</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0241</v>
+        <v>0.0242</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0007</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>109.831541651247</v>
+        <v>110.20972509527</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>40575</v>
@@ -24942,15 +24942,15 @@
         <v>76</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1036</v>
+        <v>0.1032</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0257</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>102.01087334302</v>
+        <v>102.012980408478</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>40575</v>
@@ -24959,7 +24959,7 @@
         <v>77</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0302</v>
+        <v>0.0303</v>
       </c>
       <c r="E42" t="n">
         <v>0.0143</v>
@@ -24967,7 +24967,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>102.863031242103</v>
+        <v>102.857859152863</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>40575</v>
@@ -24976,15 +24976,15 @@
         <v>78</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0235</v>
+        <v>0.0234</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0044</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>114.736055652701</v>
+        <v>115.2349466582</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>40603</v>
@@ -24993,15 +24993,15 @@
         <v>76</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0692</v>
+        <v>0.0684</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0447</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>102.025258103563</v>
+        <v>102.028222055037</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>40603</v>
@@ -25010,7 +25010,7 @@
         <v>77</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0145</v>
+        <v>0.0146</v>
       </c>
       <c r="E45" t="n">
         <v>0.0001</v>
@@ -25018,7 +25018,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>104.839187302391</v>
+        <v>104.824932086481</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>40603</v>
@@ -25027,15 +25027,15 @@
         <v>78</v>
       </c>
       <c r="D46" t="n">
-        <v>0.018</v>
+        <v>0.0179</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0192</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>108.858686707172</v>
+        <v>109.157317435087</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>40634</v>
@@ -25044,15 +25044,15 @@
         <v>76</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.005</v>
+        <v>-0.0051</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.0512</v>
+        <v>-0.0527</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>100.795730295881</v>
+        <v>100.779342409596</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>40634</v>
@@ -25061,15 +25061,15 @@
         <v>77</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.0093</v>
+        <v>-0.0095</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.0121</v>
+        <v>-0.0122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>100.697030033275</v>
+        <v>100.753778513755</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>40634</v>
@@ -25078,15 +25078,15 @@
         <v>78</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0149</v>
+        <v>-0.0145</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.0395</v>
+        <v>-0.0388</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>115.819643432488</v>
+        <v>116.149294602704</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>40664</v>
@@ -25095,15 +25095,15 @@
         <v>76</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0726</v>
+        <v>0.0728</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0639</v>
+        <v>0.0641</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>102.819590291301</v>
+        <v>102.842537545108</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>40664</v>
@@ -25112,15 +25112,15 @@
         <v>77</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0167</v>
+        <v>0.0169</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0201</v>
+        <v>0.0205</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>103.419493669233</v>
+        <v>103.393319630888</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>40664</v>
@@ -25129,15 +25129,15 @@
         <v>78</v>
       </c>
       <c r="D52" t="n">
-        <v>0.018</v>
+        <v>0.0177</v>
       </c>
       <c r="E52" t="n">
-        <v>0.027</v>
+        <v>0.0262</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>116.330614471977</v>
+        <v>116.684433591956</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>40695</v>
@@ -25146,15 +25146,15 @@
         <v>76</v>
       </c>
       <c r="D53" t="n">
-        <v>0.078</v>
+        <v>0.0785</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0044</v>
+        <v>0.0046</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>100.811148868783</v>
+        <v>100.812818894285</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>40695</v>
@@ -25163,15 +25163,15 @@
         <v>77</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.001</v>
+        <v>-0.0009</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.0195</v>
+        <v>-0.0197</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>100.15204292291</v>
+        <v>100.139308751662</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>40695</v>
@@ -25180,15 +25180,15 @@
         <v>78</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0114</v>
+        <v>-0.0115</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0316</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112.504231907535</v>
+        <v>112.810256642185</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>40725</v>
@@ -25197,15 +25197,15 @@
         <v>76</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0509</v>
+        <v>0.0513</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.0329</v>
+        <v>-0.0332</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>99.8964021557646</v>
+        <v>99.8888580708309</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>40725</v>
@@ -25217,12 +25217,12 @@
         <v>-0.0093</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0091</v>
+        <v>-0.0092</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>103.48880779799</v>
+        <v>103.503659316549</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>40725</v>
@@ -25234,12 +25234,12 @@
         <v>0.0291</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0333</v>
+        <v>0.0336</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>118.409131942747</v>
+        <v>118.784706289412</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>40756</v>
@@ -25248,15 +25248,15 @@
         <v>76</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1094</v>
+        <v>0.1096</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0525</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>98.5046544201583</v>
+        <v>98.5019470021956</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>40756</v>
@@ -25265,7 +25265,7 @@
         <v>77</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.0071</v>
+        <v>-0.0073</v>
       </c>
       <c r="E60" t="n">
         <v>-0.0139</v>
@@ -25273,7 +25273,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>100.38956791212</v>
+        <v>100.397246984147</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>40756</v>
@@ -25282,15 +25282,15 @@
         <v>78</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0038</v>
+        <v>0.0041</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.0299</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111.61497771079</v>
+        <v>111.954872743522</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>40787</v>
@@ -25299,15 +25299,15 @@
         <v>76</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0181</v>
+        <v>0.0185</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.0574</v>
+        <v>-0.0575</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>98.332913572696</v>
+        <v>98.3475121015031</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>40787</v>
@@ -25319,12 +25319,12 @@
         <v>-0.0028</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.0017</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>97.3481567898052</v>
+        <v>97.3251694760699</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>40787</v>
@@ -25333,15 +25333,15 @@
         <v>78</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.045</v>
+        <v>-0.0451</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.0303</v>
+        <v>-0.0306</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>105.777439070008</v>
+        <v>106.127337924918</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>40817</v>
@@ -25350,15 +25350,15 @@
         <v>76</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0146</v>
+        <v>0.0145</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.0523</v>
+        <v>-0.0521</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>97.4579834042594</v>
+        <v>97.4587015869724</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>40817</v>
@@ -25367,15 +25367,15 @@
         <v>77</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.0112</v>
+        <v>-0.0111</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.0089</v>
+        <v>-0.009</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>97.1431786928891</v>
+        <v>97.1452156075239</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>40817</v>
@@ -25387,12 +25387,12 @@
         <v>-0.0459</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.0021</v>
+        <v>-0.0018</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112.438217142492</v>
+        <v>112.848388659612</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>40848</v>
@@ -25401,15 +25401,15 @@
         <v>76</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.0078</v>
+        <v>-0.0081</v>
       </c>
       <c r="E68" t="n">
-        <v>0.063</v>
+        <v>0.0633</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>98.1580614423238</v>
+        <v>98.1532204919803</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>40848</v>
@@ -25418,15 +25418,15 @@
         <v>77</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.0153</v>
+        <v>-0.0154</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0072</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>98.1163599129604</v>
+        <v>98.1247980932466</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>40848</v>
@@ -25435,15 +25435,15 @@
         <v>78</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.0324</v>
+        <v>-0.0323</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>116.027572984819</v>
+        <v>116.413216991491</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>40878</v>
@@ -25452,15 +25452,15 @@
         <v>76</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0401</v>
+        <v>0.0394</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0319</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>99.7819345130084</v>
+        <v>99.7780705985586</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>40878</v>
@@ -25472,12 +25472,12 @@
         <v>-0.0066</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0165</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>101.598867340013</v>
+        <v>101.580115343707</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>40878</v>
@@ -25486,15 +25486,15 @@
         <v>78</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.0072</v>
+        <v>-0.0073</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0355</v>
+        <v>0.0352</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>90.6670703229816</v>
+        <v>90.7858297380908</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>40909</v>
@@ -25503,15 +25503,15 @@
         <v>76</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.1532</v>
+        <v>-0.1528</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.2186</v>
+        <v>-0.2201</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>96.6148552731618</v>
+        <v>96.6286619951217</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>40909</v>
@@ -25520,15 +25520,15 @@
         <v>77</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.0394</v>
+        <v>-0.0392</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.0317</v>
+        <v>-0.0316</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>98.4149693597989</v>
+        <v>98.3910663138396</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>40909</v>
@@ -25537,15 +25537,15 @@
         <v>78</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.039</v>
+        <v>-0.0393</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.0313</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>104.54544275678</v>
+        <v>104.902920946555</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>40940</v>
@@ -25554,15 +25554,15 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.0481</v>
+        <v>-0.0482</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1531</v>
+        <v>0.1555</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>96.6504381099862</v>
+        <v>96.6473399043734</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>40940</v>
@@ -25571,15 +25571,15 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.0525</v>
+        <v>-0.0526</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>98.955203558755</v>
+        <v>98.955375279027</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>40940</v>
@@ -25588,15 +25588,15 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.038</v>
+        <v>-0.0379</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0055</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>103.603231112525</v>
+        <v>103.972323619658</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>40969</v>
@@ -25605,15 +25605,15 @@
         <v>76</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.097</v>
+        <v>-0.0977</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.009</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>96.0586543780181</v>
+        <v>96.0562436450063</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>40969</v>
@@ -25630,7 +25630,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>98.8680132579098</v>
+        <v>98.8704576318618</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>40969</v>
@@ -25639,7 +25639,7 @@
         <v>78</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.057</v>
+        <v>-0.0568</v>
       </c>
       <c r="E82" t="n">
         <v>-0.0009</v>
@@ -25647,7 +25647,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>101.903126474435</v>
+        <v>102.172074155617</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>41000</v>
@@ -25656,15 +25656,15 @@
         <v>76</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.0639</v>
+        <v>-0.064</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.0164</v>
+        <v>-0.0173</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>96.1889147352918</v>
+        <v>96.1960867367842</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>41000</v>
@@ -25673,15 +25673,15 @@
         <v>77</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.0457</v>
+        <v>-0.0455</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0014</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>98.9515358787033</v>
+        <v>98.9661469886189</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>41000</v>
@@ -25690,15 +25690,15 @@
         <v>78</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.0173</v>
+        <v>-0.0177</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0008</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>104.018521640334</v>
+        <v>104.317472908858</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>41030</v>
@@ -25710,12 +25710,12 @@
         <v>-0.1019</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0208</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>97.4249506379213</v>
+        <v>97.4378280141661</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>41030</v>
@@ -25724,7 +25724,7 @@
         <v>77</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.0525</v>
+        <v>-0.0526</v>
       </c>
       <c r="E87" t="n">
         <v>0.0129</v>
@@ -25732,7 +25732,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>98.0628218326443</v>
+        <v>98.0517876064046</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>41030</v>
@@ -25741,15 +25741,15 @@
         <v>78</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.0518</v>
+        <v>-0.0517</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.009</v>
+        <v>-0.0092</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>98.9402425728402</v>
+        <v>99.290220173128</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>41061</v>
@@ -25758,15 +25758,15 @@
         <v>76</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.1495</v>
+        <v>-0.1491</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.0488</v>
+        <v>-0.0482</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>96.8731311380147</v>
+        <v>96.8618060189341</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>41061</v>
@@ -25775,15 +25775,15 @@
         <v>77</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.0391</v>
+        <v>-0.0392</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.0057</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>99.4656843313191</v>
+        <v>99.4814808488147</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>41061</v>
@@ -25792,15 +25792,15 @@
         <v>78</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.0069</v>
+        <v>-0.0066</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0143</v>
+        <v>0.0146</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>101.875445759265</v>
+        <v>102.181269464989</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>41091</v>
@@ -25809,15 +25809,15 @@
         <v>76</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.0945</v>
+        <v>-0.0942</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0297</v>
+        <v>0.0291</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>98.4467806197006</v>
+        <v>98.4604952373301</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>41091</v>
@@ -25826,15 +25826,15 @@
         <v>77</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.0145</v>
+        <v>-0.0143</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0162</v>
+        <v>0.0165</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>101.207983082449</v>
+        <v>101.186696737689</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>41091</v>
@@ -25843,15 +25843,15 @@
         <v>78</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.022</v>
+        <v>-0.0224</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0175</v>
+        <v>0.0171</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>102.51237153405</v>
+        <v>102.858360417305</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>41122</v>
@@ -25860,15 +25860,15 @@
         <v>76</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.1343</v>
+        <v>-0.1341</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0063</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>101.105411249572</v>
+        <v>101.106555355386</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>41122</v>
@@ -25880,12 +25880,12 @@
         <v>0.0264</v>
       </c>
       <c r="E96" t="n">
-        <v>0.027</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>102.983672794707</v>
+        <v>102.984075052289</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>41122</v>
@@ -25897,12 +25897,12 @@
         <v>0.0258</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0175</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>93.9451752264083</v>
+        <v>94.2659391532671</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>41153</v>
@@ -25911,15 +25911,15 @@
         <v>76</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1583</v>
+        <v>-0.158</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.0836</v>
+        <v>-0.0835</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>99.704083519436</v>
+        <v>99.6984162570474</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>41153</v>
@@ -25928,7 +25928,7 @@
         <v>77</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0139</v>
+        <v>0.0137</v>
       </c>
       <c r="E99" t="n">
         <v>-0.0139</v>
@@ -25936,7 +25936,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>101.474306896394</v>
+        <v>101.474819872799</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>41153</v>
@@ -25945,7 +25945,7 @@
         <v>78</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0424</v>
+        <v>0.0426</v>
       </c>
       <c r="E100" t="n">
         <v>-0.0147</v>
@@ -25953,7 +25953,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>100.281694917621</v>
+        <v>100.596034150118</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>41183</v>
@@ -25962,15 +25962,15 @@
         <v>76</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.052</v>
+        <v>-0.0521</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0674</v>
+        <v>0.0672</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>100.895941173911</v>
+        <v>100.901472502563</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>41183</v>
@@ -25982,12 +25982,12 @@
         <v>0.0353</v>
       </c>
       <c r="E102" t="n">
-        <v>0.012</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>103.058342741184</v>
+        <v>103.063807809389</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>41183</v>
@@ -25999,12 +25999,12 @@
         <v>0.0609</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0156</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>97.9445747294522</v>
+        <v>98.2730828780538</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>41214</v>
@@ -26013,15 +26013,15 @@
         <v>76</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1289</v>
+        <v>-0.1292</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.0233</v>
+        <v>-0.0231</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>99.6310372918763</v>
+        <v>99.6386016557272</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>41214</v>
@@ -26030,7 +26030,7 @@
         <v>77</v>
       </c>
       <c r="D105" t="n">
-        <v>0.015</v>
+        <v>0.0151</v>
       </c>
       <c r="E105" t="n">
         <v>-0.0125</v>
@@ -26038,7 +26038,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>102.743173467701</v>
+        <v>102.728789554255</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>41214</v>
@@ -26047,15 +26047,15 @@
         <v>78</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0472</v>
+        <v>0.0469</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.0031</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>98.3285735803285</v>
+        <v>98.5842225300889</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>41244</v>
@@ -26064,15 +26064,15 @@
         <v>76</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.1525</v>
+        <v>-0.1532</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0039</v>
+        <v>0.0032</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>99.8820764702141</v>
+        <v>99.8769345346665</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>41244</v>
@@ -26084,12 +26084,12 @@
         <v>0.001</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0025</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>102.3057146977</v>
+        <v>102.277171562084</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>41244</v>
@@ -26098,15 +26098,15 @@
         <v>78</v>
       </c>
       <c r="D109" t="n">
-        <v>0.007</v>
+        <v>0.0069</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.0043</v>
+        <v>-0.0044</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>109.320690312149</v>
+        <v>109.593619355816</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>41275</v>
@@ -26115,15 +26115,15 @@
         <v>76</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2057</v>
+        <v>0.2072</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1118</v>
+        <v>0.1117</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>99.1877976271939</v>
+        <v>99.1919662738201</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>41275</v>
@@ -26132,15 +26132,15 @@
         <v>77</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0266</v>
+        <v>0.0265</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.007</v>
+        <v>-0.0069</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>103.415916425127</v>
+        <v>103.409225989362</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>41275</v>
@@ -26149,15 +26149,15 @@
         <v>78</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0508</v>
+        <v>0.051</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0109</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>108.459485906775</v>
+        <v>108.816160451044</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>41306</v>
@@ -26166,15 +26166,15 @@
         <v>76</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0374</v>
+        <v>0.0373</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.0079</v>
+        <v>-0.0071</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>97.1250958245599</v>
+        <v>97.1287416002331</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>41306</v>
@@ -26183,7 +26183,7 @@
         <v>77</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0049</v>
+        <v>0.005</v>
       </c>
       <c r="E114" t="n">
         <v>-0.0208</v>
@@ -26191,7 +26191,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>98.6841670271544</v>
+        <v>98.6895391326061</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>41306</v>
@@ -26203,12 +26203,12 @@
         <v>-0.0027</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.0458</v>
+        <v>-0.0456</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>108.655066368879</v>
+        <v>109.021599071304</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>41334</v>
@@ -26217,15 +26217,15 @@
         <v>76</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0488</v>
+        <v>0.0486</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0018</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>98.2635595321339</v>
+        <v>98.2577951225353</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>41334</v>
@@ -26234,15 +26234,15 @@
         <v>77</v>
       </c>
       <c r="D117" t="n">
-        <v>0.023</v>
+        <v>0.0229</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0117</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>101.367321171708</v>
+        <v>101.381582285763</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>41334</v>
@@ -26251,15 +26251,15 @@
         <v>78</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0253</v>
+        <v>0.0254</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0272</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>120.041266709426</v>
+        <v>120.319112255416</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>41365</v>
@@ -26268,15 +26268,15 @@
         <v>76</v>
       </c>
       <c r="D119" t="n">
-        <v>0.178</v>
+        <v>0.1776</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1048</v>
+        <v>0.1036</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>99.0569760574965</v>
+        <v>99.0658780788397</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>41365</v>
@@ -26288,12 +26288,12 @@
         <v>0.0298</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0081</v>
+        <v>0.0082</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>104.491139538144</v>
+        <v>104.496224123907</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>41365</v>
@@ -26302,15 +26302,15 @@
         <v>78</v>
       </c>
       <c r="D121" t="n">
-        <v>0.056</v>
+        <v>0.0559</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0308</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>113.486443432089</v>
+        <v>113.819679482933</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>41395</v>
@@ -26319,15 +26319,15 @@
         <v>76</v>
       </c>
       <c r="D122" t="n">
-        <v>0.091</v>
+        <v>0.0911</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.0546</v>
+        <v>-0.054</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>99.1458740745656</v>
+        <v>99.1488111466454</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>41395</v>
@@ -26336,15 +26336,15 @@
         <v>77</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0177</v>
+        <v>0.0176</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>103.441178199511</v>
+        <v>103.450373518074</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>41395</v>
@@ -26353,7 +26353,7 @@
         <v>78</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0548</v>
+        <v>0.0551</v>
       </c>
       <c r="E124" t="n">
         <v>-0.01</v>
@@ -26361,7 +26361,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>113.218573909505</v>
+        <v>113.653163336511</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>41426</v>
@@ -26370,15 +26370,15 @@
         <v>76</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1443</v>
+        <v>0.1447</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.0024</v>
+        <v>-0.0015</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>98.6978197980384</v>
+        <v>98.6964650702913</v>
       </c>
       <c r="B126" s="1" t="n">
         <v>41426</v>
@@ -26387,15 +26387,15 @@
         <v>77</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0188</v>
+        <v>0.0189</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.0045</v>
+        <v>-0.0046</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>106.629045312931</v>
+        <v>106.622893198801</v>
       </c>
       <c r="B127" s="1" t="n">
         <v>41426</v>
@@ -26404,15 +26404,15 @@
         <v>78</v>
       </c>
       <c r="D127" t="n">
-        <v>0.072</v>
+        <v>0.0718</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0308</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>115.165859852788</v>
+        <v>115.527435541282</v>
       </c>
       <c r="B128" s="1" t="n">
         <v>41456</v>
@@ -26421,15 +26421,15 @@
         <v>76</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1305</v>
+        <v>0.1306</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0172</v>
+        <v>0.0165</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>98.9231318173771</v>
+        <v>98.9169274140213</v>
       </c>
       <c r="B129" s="1" t="n">
         <v>41456</v>
@@ -26438,15 +26438,15 @@
         <v>77</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0048</v>
+        <v>0.0046</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0023</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>103.233386539815</v>
+        <v>103.247811117268</v>
       </c>
       <c r="B130" s="1" t="n">
         <v>41456</v>
@@ -26455,15 +26455,15 @@
         <v>78</v>
       </c>
       <c r="D130" t="n">
-        <v>0.02</v>
+        <v>0.0204</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.0318</v>
+        <v>-0.0317</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>113.974082870575</v>
+        <v>114.346553700106</v>
       </c>
       <c r="B131" s="1" t="n">
         <v>41487</v>
@@ -26472,15 +26472,15 @@
         <v>76</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1118</v>
+        <v>0.1117</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.0103</v>
+        <v>-0.0102</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>99.900419255218</v>
+        <v>99.8999643869279</v>
       </c>
       <c r="B132" s="1" t="n">
         <v>41487</v>
@@ -26497,7 +26497,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>103.75316211799</v>
+        <v>103.756864829615</v>
       </c>
       <c r="B133" s="1" t="n">
         <v>41487</v>
@@ -26509,12 +26509,12 @@
         <v>0.0075</v>
       </c>
       <c r="E133" t="n">
-        <v>0.005</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>116.531352025879</v>
+        <v>116.928654605169</v>
       </c>
       <c r="B134" s="1" t="n">
         <v>41518</v>
@@ -26526,12 +26526,12 @@
         <v>0.2404</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0224</v>
+        <v>0.0226</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>99.175608487186</v>
+        <v>99.182061172762</v>
       </c>
       <c r="B135" s="1" t="n">
         <v>41518</v>
@@ -26540,15 +26540,15 @@
         <v>77</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.0053</v>
+        <v>-0.0052</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.0073</v>
+        <v>-0.0072</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>104.368327522824</v>
+        <v>104.350102667857</v>
       </c>
       <c r="B136" s="1" t="n">
         <v>41518</v>
@@ -26557,15 +26557,15 @@
         <v>78</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0285</v>
+        <v>0.0283</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0059</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>117.924774289952</v>
+        <v>118.298225395343</v>
       </c>
       <c r="B137" s="1" t="n">
         <v>41548</v>
@@ -26574,15 +26574,15 @@
         <v>76</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1759</v>
+        <v>0.176</v>
       </c>
       <c r="E137" t="n">
-        <v>0.012</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>98.7288637063138</v>
+        <v>98.7483240834852</v>
       </c>
       <c r="B138" s="1" t="n">
         <v>41548</v>
@@ -26591,15 +26591,15 @@
         <v>77</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.0215</v>
+        <v>-0.0213</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.0045</v>
+        <v>-0.0044</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>103.830605433492</v>
+        <v>103.816058991187</v>
       </c>
       <c r="B139" s="1" t="n">
         <v>41548</v>
@@ -26608,15 +26608,15 @@
         <v>78</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0075</v>
+        <v>0.0073</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.0052</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>111.415766336859</v>
+        <v>111.781642720507</v>
       </c>
       <c r="B140" s="1" t="n">
         <v>41579</v>
@@ -26628,12 +26628,12 @@
         <v>0.1375</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.0552</v>
+        <v>-0.0551</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>100.646753011988</v>
+        <v>100.631071120496</v>
       </c>
       <c r="B141" s="1" t="n">
         <v>41579</v>
@@ -26642,15 +26642,15 @@
         <v>77</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0102</v>
+        <v>0.01</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0194</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>103.465053289381</v>
+        <v>103.491470805602</v>
       </c>
       <c r="B142" s="1" t="n">
         <v>41579</v>
@@ -26659,15 +26659,15 @@
         <v>78</v>
       </c>
       <c r="D142" t="n">
-        <v>0.007</v>
+        <v>0.0074</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.0035</v>
+        <v>-0.0031</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>95.9494285802636</v>
+        <v>96.1558904111234</v>
       </c>
       <c r="B143" s="1" t="n">
         <v>41609</v>
@@ -26676,15 +26676,15 @@
         <v>76</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.0242</v>
+        <v>-0.0246</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.1388</v>
+        <v>-0.1398</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>97.6108793292862</v>
+        <v>97.6236126581678</v>
       </c>
       <c r="B144" s="1" t="n">
         <v>41609</v>
@@ -26693,15 +26693,15 @@
         <v>77</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.0227</v>
+        <v>-0.0226</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.0302</v>
+        <v>-0.0299</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>100.284893328289</v>
+        <v>100.220699467795</v>
       </c>
       <c r="B145" s="1" t="n">
         <v>41609</v>
@@ -26710,15 +26710,15 @@
         <v>78</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.0198</v>
+        <v>-0.0201</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.0307</v>
+        <v>-0.0316</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>109.919900489076</v>
+        <v>110.215128215031</v>
       </c>
       <c r="B146" s="1" t="n">
         <v>41640</v>
@@ -26727,15 +26727,15 @@
         <v>76</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0055</v>
+        <v>0.0057</v>
       </c>
       <c r="E146" t="n">
-        <v>0.1456</v>
+        <v>0.1462</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>96.9330036423671</v>
+        <v>96.9312598786399</v>
       </c>
       <c r="B147" s="1" t="n">
         <v>41640</v>
@@ -26744,15 +26744,15 @@
         <v>77</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.0227</v>
+        <v>-0.0228</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.0069</v>
+        <v>-0.0071</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>102.059839456098</v>
+        <v>102.065766713106</v>
       </c>
       <c r="B148" s="1" t="n">
         <v>41640</v>
@@ -26761,15 +26761,15 @@
         <v>78</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.0131</v>
+        <v>-0.013</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0177</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>110.081715466188</v>
+        <v>110.425199510197</v>
       </c>
       <c r="B149" s="1" t="n">
         <v>41671</v>
@@ -26778,15 +26778,15 @@
         <v>76</v>
       </c>
       <c r="D149" t="n">
-        <v>0.015</v>
+        <v>0.0148</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0015</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>97.2822156115118</v>
+        <v>97.2868195301418</v>
       </c>
       <c r="B150" s="1" t="n">
         <v>41671</v>
@@ -26798,12 +26798,12 @@
         <v>0.0016</v>
       </c>
       <c r="E150" t="n">
-        <v>0.0036</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>103.586649443643</v>
+        <v>103.589451160295</v>
       </c>
       <c r="B151" s="1" t="n">
         <v>41671</v>
@@ -26812,15 +26812,15 @@
         <v>78</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0497</v>
+        <v>0.0496</v>
       </c>
       <c r="E151" t="n">
-        <v>0.015</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>104.325762616172</v>
+        <v>104.634205790423</v>
       </c>
       <c r="B152" s="1" t="n">
         <v>41699</v>
@@ -26829,15 +26829,15 @@
         <v>76</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.0398</v>
+        <v>-0.0402</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.0523</v>
+        <v>-0.0524</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>97.532644348266</v>
+        <v>97.5283129830768</v>
       </c>
       <c r="B153" s="1" t="n">
         <v>41699</v>
@@ -26849,12 +26849,12 @@
         <v>-0.0074</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0026</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>103.225548757787</v>
+        <v>103.240747206967</v>
       </c>
       <c r="B154" s="1" t="n">
         <v>41699</v>
@@ -26866,12 +26866,12 @@
         <v>0.0183</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.0035</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>107.31314519757</v>
+        <v>107.622511237989</v>
       </c>
       <c r="B155" s="1" t="n">
         <v>41730</v>
@@ -26880,7 +26880,7 @@
         <v>76</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.106</v>
+        <v>-0.1055</v>
       </c>
       <c r="E155" t="n">
         <v>0.0286</v>
@@ -26888,7 +26888,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>96.8414964798197</v>
+        <v>96.8380180227548</v>
       </c>
       <c r="B156" s="1" t="n">
         <v>41730</v>
@@ -26897,7 +26897,7 @@
         <v>77</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.0224</v>
+        <v>-0.0225</v>
       </c>
       <c r="E156" t="n">
         <v>-0.0071</v>
@@ -26905,7 +26905,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>102.60773056519</v>
+        <v>102.629342157025</v>
       </c>
       <c r="B157" s="1" t="n">
         <v>41730</v>
@@ -26914,15 +26914,15 @@
         <v>78</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.018</v>
+        <v>-0.0179</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.006</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>102.293928297471</v>
+        <v>102.586433406649</v>
       </c>
       <c r="B158" s="1" t="n">
         <v>41760</v>
@@ -26931,7 +26931,7 @@
         <v>76</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.0986</v>
+        <v>-0.0987</v>
       </c>
       <c r="E158" t="n">
         <v>-0.0468</v>
@@ -26939,7 +26939,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>95.7395411172775</v>
+        <v>95.7401370153134</v>
       </c>
       <c r="B159" s="1" t="n">
         <v>41760</v>
@@ -26951,12 +26951,12 @@
         <v>-0.0344</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.0114</v>
+        <v>-0.0113</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>101.40837909141</v>
+        <v>101.417384152625</v>
       </c>
       <c r="B160" s="1" t="n">
         <v>41760</v>
@@ -26968,12 +26968,12 @@
         <v>-0.0197</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.0117</v>
+        <v>-0.0118</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>90.72082577309</v>
+        <v>91.0901454499828</v>
       </c>
       <c r="B161" s="1" t="n">
         <v>41791</v>
@@ -26982,15 +26982,15 @@
         <v>76</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.1987</v>
+        <v>-0.1985</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.1131</v>
+        <v>-0.1121</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>95.6878800368076</v>
+        <v>95.695012683157</v>
       </c>
       <c r="B162" s="1" t="n">
         <v>41791</v>
@@ -26999,7 +26999,7 @@
         <v>77</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.0305</v>
+        <v>-0.0304</v>
       </c>
       <c r="E162" t="n">
         <v>-0.0005</v>
@@ -27007,7 +27007,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>94.9677219034355</v>
+        <v>94.9501984275515</v>
       </c>
       <c r="B163" s="1" t="n">
         <v>41791</v>
@@ -27016,15 +27016,15 @@
         <v>78</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.1094</v>
+        <v>-0.1095</v>
       </c>
       <c r="E163" t="n">
-        <v>-0.0635</v>
+        <v>-0.0638</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>104.037873203372</v>
+        <v>104.367131581775</v>
       </c>
       <c r="B164" s="1" t="n">
         <v>41821</v>
@@ -27036,12 +27036,12 @@
         <v>-0.0966</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1468</v>
+        <v>0.1458</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>95.6881360284395</v>
+        <v>95.6908675066704</v>
       </c>
       <c r="B165" s="1" t="n">
         <v>41821</v>
@@ -27050,7 +27050,7 @@
         <v>77</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.0327</v>
+        <v>-0.0326</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -27058,7 +27058,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>100.767268618375</v>
+        <v>100.758491136702</v>
       </c>
       <c r="B166" s="1" t="n">
         <v>41821</v>
@@ -27067,15 +27067,15 @@
         <v>78</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.0239</v>
+        <v>-0.0241</v>
       </c>
       <c r="E166" t="n">
-        <v>0.0611</v>
+        <v>0.0612</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>96.4011379517069</v>
+        <v>96.7229378242997</v>
       </c>
       <c r="B167" s="1" t="n">
         <v>41852</v>
@@ -27084,15 +27084,15 @@
         <v>76</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.1542</v>
+        <v>-0.1541</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.0734</v>
+        <v>-0.0732</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>98.1603752128423</v>
+        <v>98.159393949598</v>
       </c>
       <c r="B168" s="1" t="n">
         <v>41852</v>
@@ -27109,7 +27109,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>99.8020357131553</v>
+        <v>99.8061795650018</v>
       </c>
       <c r="B169" s="1" t="n">
         <v>41852</v>
@@ -27121,12 +27121,12 @@
         <v>-0.0381</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.0096</v>
+        <v>-0.0095</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>103.921185273261</v>
+        <v>104.267283929741</v>
       </c>
       <c r="B170" s="1" t="n">
         <v>41883</v>
@@ -27135,7 +27135,7 @@
         <v>76</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.1082</v>
+        <v>-0.1083</v>
       </c>
       <c r="E170" t="n">
         <v>0.078</v>
@@ -27143,7 +27143,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>95.9015641285621</v>
+        <v>95.9063871458963</v>
       </c>
       <c r="B171" s="1" t="n">
         <v>41883</v>
@@ -27160,7 +27160,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>102.121456480967</v>
+        <v>102.109355963302</v>
       </c>
       <c r="B172" s="1" t="n">
         <v>41883</v>
@@ -27172,12 +27172,12 @@
         <v>-0.0215</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0232</v>
+        <v>0.0231</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>102.293678921659</v>
+        <v>102.625085724497</v>
       </c>
       <c r="B173" s="1" t="n">
         <v>41913</v>
@@ -27186,7 +27186,7 @@
         <v>76</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.1326</v>
+        <v>-0.1325</v>
       </c>
       <c r="E173" t="n">
         <v>-0.0157</v>
@@ -27194,7 +27194,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>96.7355454817378</v>
+        <v>96.7551243390487</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>41913</v>
@@ -27206,12 +27206,12 @@
         <v>-0.0202</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0087</v>
+        <v>0.0088</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>102.535994762754</v>
+        <v>102.537752480784</v>
       </c>
       <c r="B175" s="1" t="n">
         <v>41913</v>
@@ -27220,15 +27220,15 @@
         <v>78</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.0125</v>
+        <v>-0.0123</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0041</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>99.3716926532888</v>
+        <v>99.6885701804222</v>
       </c>
       <c r="B176" s="1" t="n">
         <v>41944</v>
@@ -27237,7 +27237,7 @@
         <v>76</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.1081</v>
+        <v>-0.1082</v>
       </c>
       <c r="E176" t="n">
         <v>-0.0286</v>
@@ -27245,7 +27245,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>96.5372996545491</v>
+        <v>96.5306645092057</v>
       </c>
       <c r="B177" s="1" t="n">
         <v>41944</v>
@@ -27254,15 +27254,15 @@
         <v>77</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.0408</v>
+        <v>-0.0407</v>
       </c>
       <c r="E177" t="n">
-        <v>-0.002</v>
+        <v>-0.0023</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>100.309290936962</v>
+        <v>100.313846620703</v>
       </c>
       <c r="B178" s="1" t="n">
         <v>41944</v>
@@ -27271,7 +27271,7 @@
         <v>78</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.0305</v>
+        <v>-0.0307</v>
       </c>
       <c r="E178" t="n">
         <v>-0.0217</v>
@@ -27279,7 +27279,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>87.1053253705974</v>
+        <v>87.2731215003543</v>
       </c>
       <c r="B179" s="1" t="n">
         <v>41974</v>
@@ -27288,15 +27288,15 @@
         <v>76</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.0922</v>
+        <v>-0.0924</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.1234</v>
+        <v>-0.1245</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>95.2547028124225</v>
+        <v>95.24621117577</v>
       </c>
       <c r="B180" s="1" t="n">
         <v>41974</v>
@@ -27305,7 +27305,7 @@
         <v>77</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.0241</v>
+        <v>-0.0244</v>
       </c>
       <c r="E180" t="n">
         <v>-0.0133</v>
@@ -27313,7 +27313,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>95.7596795351994</v>
+        <v>95.7332273579318</v>
       </c>
       <c r="B181" s="1" t="n">
         <v>41974</v>
@@ -27322,15 +27322,15 @@
         <v>78</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.0451</v>
+        <v>-0.0448</v>
       </c>
       <c r="E181" t="n">
-        <v>-0.0454</v>
+        <v>-0.0457</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>94.5078269092462</v>
+        <v>94.777734663995</v>
       </c>
       <c r="B182" s="1" t="n">
         <v>42005</v>
@@ -27339,15 +27339,15 @@
         <v>76</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.1402</v>
+        <v>-0.1401</v>
       </c>
       <c r="E182" t="n">
-        <v>0.085</v>
+        <v>0.086</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>94.8348469987246</v>
+        <v>94.8302067773537</v>
       </c>
       <c r="B183" s="1" t="n">
         <v>42005</v>
@@ -27356,7 +27356,7 @@
         <v>77</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.0216</v>
+        <v>-0.0217</v>
       </c>
       <c r="E183" t="n">
         <v>-0.0044</v>
@@ -27364,7 +27364,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>96.0970156640084</v>
+        <v>96.1048211941425</v>
       </c>
       <c r="B184" s="1" t="n">
         <v>42005</v>
@@ -27376,12 +27376,12 @@
         <v>-0.0584</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0035</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>88.1357262771284</v>
+        <v>88.4235357495418</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>42036</v>
@@ -27390,15 +27390,15 @@
         <v>76</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.1994</v>
+        <v>-0.1992</v>
       </c>
       <c r="E185" t="n">
-        <v>-0.0674</v>
+        <v>-0.067</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>94.9884222861589</v>
+        <v>94.9885308578851</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>42036</v>
@@ -27410,12 +27410,12 @@
         <v>-0.0236</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0016</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>94.9600850901772</v>
+        <v>94.9697924888427</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>42036</v>
@@ -27424,7 +27424,7 @@
         <v>78</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.0833</v>
+        <v>-0.0832</v>
       </c>
       <c r="E187" t="n">
         <v>-0.0118</v>
@@ -27432,7 +27432,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>86.0278323356638</v>
+        <v>86.2746850031208</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>42064</v>
@@ -27441,15 +27441,15 @@
         <v>76</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.1754</v>
+        <v>-0.1755</v>
       </c>
       <c r="E188" t="n">
-        <v>-0.0239</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>95.0181173154512</v>
+        <v>95.0314890645617</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>42064</v>
@@ -27458,15 +27458,15 @@
         <v>77</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.0258</v>
+        <v>-0.0256</v>
       </c>
       <c r="E189" t="n">
-        <v>0.0003</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>94.2021012289743</v>
+        <v>94.1827643603117</v>
       </c>
       <c r="B190" s="1" t="n">
         <v>42064</v>
@@ -27475,15 +27475,15 @@
         <v>78</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.0874</v>
+        <v>-0.0877</v>
       </c>
       <c r="E190" t="n">
-        <v>-0.008</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>83.7883477655429</v>
+        <v>84.0545931220687</v>
       </c>
       <c r="B191" s="1" t="n">
         <v>42095</v>
@@ -27492,15 +27492,15 @@
         <v>76</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.2192</v>
+        <v>-0.219</v>
       </c>
       <c r="E191" t="n">
-        <v>-0.026</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>93.7759671511538</v>
+        <v>93.7764458075281</v>
       </c>
       <c r="B192" s="1" t="n">
         <v>42095</v>
@@ -27509,15 +27509,15 @@
         <v>77</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.0317</v>
+        <v>-0.0316</v>
       </c>
       <c r="E192" t="n">
-        <v>-0.0131</v>
+        <v>-0.0132</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>91.7306676835686</v>
+        <v>91.7424898223924</v>
       </c>
       <c r="B193" s="1" t="n">
         <v>42095</v>
@@ -27526,15 +27526,15 @@
         <v>78</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.106</v>
+        <v>-0.1061</v>
       </c>
       <c r="E193" t="n">
-        <v>-0.0262</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>75.2298197611379</v>
+        <v>75.3981548946361</v>
       </c>
       <c r="B194" s="1" t="n">
         <v>42125</v>
@@ -27543,15 +27543,15 @@
         <v>76</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.2646</v>
+        <v>-0.265</v>
       </c>
       <c r="E194" t="n">
-        <v>-0.1021</v>
+        <v>-0.103</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>92.7573764481003</v>
+        <v>92.7561514763671</v>
       </c>
       <c r="B195" s="1" t="n">
         <v>42125</v>
@@ -27560,7 +27560,7 @@
         <v>77</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.0311</v>
+        <v>-0.0312</v>
       </c>
       <c r="E195" t="n">
         <v>-0.0109</v>
@@ -27568,7 +27568,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>91.9262203451739</v>
+        <v>91.9322105768743</v>
       </c>
       <c r="B196" s="1" t="n">
         <v>42125</v>
@@ -27585,7 +27585,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>75.1829470834501</v>
+        <v>75.5113002247498</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>42156</v>
@@ -27594,15 +27594,15 @@
         <v>76</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.1713</v>
+        <v>-0.171</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.0006</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>92.6449961217268</v>
+        <v>92.6482390433681</v>
       </c>
       <c r="B198" s="1" t="n">
         <v>42156</v>
@@ -27619,7 +27619,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>90.3192037215397</v>
+        <v>90.3123243128639</v>
       </c>
       <c r="B199" s="1" t="n">
         <v>42156</v>
@@ -27628,15 +27628,15 @@
         <v>78</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.0489</v>
+        <v>-0.0488</v>
       </c>
       <c r="E199" t="n">
-        <v>-0.0175</v>
+        <v>-0.0176</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>75.0521145572632</v>
+        <v>75.296075954256</v>
       </c>
       <c r="B200" s="1" t="n">
         <v>42186</v>
@@ -27645,15 +27645,15 @@
         <v>76</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.2786</v>
+        <v>-0.2785</v>
       </c>
       <c r="E200" t="n">
-        <v>-0.0017</v>
+        <v>-0.0029</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>90.3820793255054</v>
+        <v>90.3801776675811</v>
       </c>
       <c r="B201" s="1" t="n">
         <v>42186</v>
@@ -27665,12 +27665,12 @@
         <v>-0.0555</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.0244</v>
+        <v>-0.0245</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>90.2647612817587</v>
+        <v>90.2696293557222</v>
       </c>
       <c r="B202" s="1" t="n">
         <v>42186</v>
@@ -27679,15 +27679,15 @@
         <v>78</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.1042</v>
+        <v>-0.1041</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.0006</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>62.8131586638643</v>
+        <v>63.0264814904126</v>
       </c>
       <c r="B203" s="1" t="n">
         <v>42217</v>
@@ -27699,12 +27699,12 @@
         <v>-0.3484</v>
       </c>
       <c r="E203" t="n">
-        <v>-0.1631</v>
+        <v>-0.163</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>92.8509315437024</v>
+        <v>92.8536566610377</v>
       </c>
       <c r="B204" s="1" t="n">
         <v>42217</v>
@@ -27716,12 +27716,12 @@
         <v>-0.0541</v>
       </c>
       <c r="E204" t="n">
-        <v>0.0273</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>90.4767632371849</v>
+        <v>90.479315956248</v>
       </c>
       <c r="B205" s="1" t="n">
         <v>42217</v>
@@ -27738,7 +27738,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>70.6872099135863</v>
+        <v>70.9200492364291</v>
       </c>
       <c r="B206" s="1" t="n">
         <v>42248</v>
@@ -27750,12 +27750,12 @@
         <v>-0.3198</v>
       </c>
       <c r="E206" t="n">
-        <v>0.1254</v>
+        <v>0.1252</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>89.0087826790548</v>
+        <v>89.0041070723702</v>
       </c>
       <c r="B207" s="1" t="n">
         <v>42248</v>
@@ -27764,15 +27764,15 @@
         <v>77</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.0719</v>
+        <v>-0.072</v>
       </c>
       <c r="E207" t="n">
-        <v>-0.0414</v>
+        <v>-0.0415</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>89.5969420591964</v>
+        <v>89.5996430866374</v>
       </c>
       <c r="B208" s="1" t="n">
         <v>42248</v>
@@ -27781,7 +27781,7 @@
         <v>78</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.1226</v>
+        <v>-0.1225</v>
       </c>
       <c r="E208" t="n">
         <v>-0.0097</v>
@@ -27789,7 +27789,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>66.2326696279213</v>
+        <v>66.4607644453908</v>
       </c>
       <c r="B209" s="1" t="n">
         <v>42278</v>
@@ -27798,15 +27798,15 @@
         <v>76</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.3525</v>
+        <v>-0.3524</v>
       </c>
       <c r="E209" t="n">
-        <v>-0.063</v>
+        <v>-0.0629</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>89.6367695352629</v>
+        <v>89.6580800468041</v>
       </c>
       <c r="B210" s="1" t="n">
         <v>42278</v>
@@ -27818,12 +27818,12 @@
         <v>-0.0734</v>
       </c>
       <c r="E210" t="n">
-        <v>0.0071</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>89.1344626773361</v>
+        <v>89.1395644792828</v>
       </c>
       <c r="B211" s="1" t="n">
         <v>42278</v>
@@ -27835,12 +27835,12 @@
         <v>-0.1307</v>
       </c>
       <c r="E211" t="n">
-        <v>-0.0052</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>67.8707894140965</v>
+        <v>68.078398467275</v>
       </c>
       <c r="B212" s="1" t="n">
         <v>42309</v>
@@ -27849,15 +27849,15 @@
         <v>76</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.317</v>
+        <v>-0.3171</v>
       </c>
       <c r="E212" t="n">
-        <v>0.0247</v>
+        <v>0.0243</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>86.2606829738587</v>
+        <v>86.2698758012572</v>
       </c>
       <c r="B213" s="1" t="n">
         <v>42309</v>
@@ -27866,15 +27866,15 @@
         <v>77</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.1065</v>
+        <v>-0.1063</v>
       </c>
       <c r="E213" t="n">
-        <v>-0.0377</v>
+        <v>-0.0378</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>88.6659642808157</v>
+        <v>88.6474721902493</v>
       </c>
       <c r="B214" s="1" t="n">
         <v>42309</v>
@@ -27883,15 +27883,15 @@
         <v>78</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.1161</v>
+        <v>-0.1163</v>
       </c>
       <c r="E214" t="n">
-        <v>-0.0053</v>
+        <v>-0.0055</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>63.3791719326526</v>
+        <v>63.4623131396068</v>
       </c>
       <c r="B215" s="1" t="n">
         <v>42339</v>
@@ -27900,15 +27900,15 @@
         <v>76</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.2724</v>
+        <v>-0.2728</v>
       </c>
       <c r="E215" t="n">
-        <v>-0.0662</v>
+        <v>-0.0678</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>85.512754192306</v>
+        <v>85.5114857326668</v>
       </c>
       <c r="B216" s="1" t="n">
         <v>42339</v>
@@ -27917,15 +27917,15 @@
         <v>77</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.1023</v>
+        <v>-0.1022</v>
       </c>
       <c r="E216" t="n">
-        <v>-0.0087</v>
+        <v>-0.0088</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>87.6462185967456</v>
+        <v>87.6090271347604</v>
       </c>
       <c r="B217" s="1" t="n">
         <v>42339</v>
@@ -27934,15 +27934,15 @@
         <v>78</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.0847</v>
+        <v>-0.0849</v>
       </c>
       <c r="E217" t="n">
-        <v>-0.0115</v>
+        <v>-0.0117</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>65.3033557006812</v>
+        <v>65.501260427771</v>
       </c>
       <c r="B218" s="1" t="n">
         <v>42370</v>
@@ -27951,15 +27951,15 @@
         <v>76</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.309</v>
+        <v>-0.3089</v>
       </c>
       <c r="E218" t="n">
-        <v>0.0304</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>85.991448697997</v>
+        <v>85.9816432680808</v>
       </c>
       <c r="B219" s="1" t="n">
         <v>42370</v>
@@ -27971,12 +27971,12 @@
         <v>-0.0933</v>
       </c>
       <c r="E219" t="n">
-        <v>0.0056</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>88.7249184694821</v>
+        <v>88.7284710251563</v>
       </c>
       <c r="B220" s="1" t="n">
         <v>42370</v>
@@ -27985,15 +27985,15 @@
         <v>78</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.0767</v>
+        <v>-0.0768</v>
       </c>
       <c r="E220" t="n">
-        <v>0.0123</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>68.4500196009389</v>
+        <v>68.6688894167492</v>
       </c>
       <c r="B221" s="1" t="n">
         <v>42401</v>
@@ -28005,12 +28005,12 @@
         <v>-0.2234</v>
       </c>
       <c r="E221" t="n">
-        <v>0.0482</v>
+        <v>0.0484</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>84.4526436157361</v>
+        <v>84.4522996031166</v>
       </c>
       <c r="B222" s="1" t="n">
         <v>42401</v>
@@ -28022,12 +28022,12 @@
         <v>-0.1109</v>
       </c>
       <c r="E222" t="n">
-        <v>-0.0179</v>
+        <v>-0.0178</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>86.6640239273418</v>
+        <v>86.6516512518344</v>
       </c>
       <c r="B223" s="1" t="n">
         <v>42401</v>
@@ -28036,15 +28036,15 @@
         <v>78</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.0874</v>
+        <v>-0.0876</v>
       </c>
       <c r="E223" t="n">
-        <v>-0.0232</v>
+        <v>-0.0234</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>69.803781135817</v>
+        <v>70.0626141534122</v>
       </c>
       <c r="B224" s="1" t="n">
         <v>42430</v>
@@ -28053,15 +28053,15 @@
         <v>76</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.1886</v>
+        <v>-0.1879</v>
       </c>
       <c r="E224" t="n">
-        <v>0.0198</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>85.6413801414689</v>
+        <v>85.6386963744869</v>
       </c>
       <c r="B225" s="1" t="n">
         <v>42430</v>
@@ -28070,15 +28070,15 @@
         <v>77</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.0987</v>
+        <v>-0.0988</v>
       </c>
       <c r="E225" t="n">
-        <v>0.0141</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>87.692089718488</v>
+        <v>87.6877048270221</v>
       </c>
       <c r="B226" s="1" t="n">
         <v>42430</v>
@@ -28087,15 +28087,15 @@
         <v>78</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.0691</v>
+        <v>-0.069</v>
       </c>
       <c r="E226" t="n">
-        <v>0.0119</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>67.9569537447768</v>
+        <v>68.1928945773289</v>
       </c>
       <c r="B227" s="1" t="n">
         <v>42461</v>
@@ -28104,15 +28104,15 @@
         <v>76</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.1889</v>
+        <v>-0.1887</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.0265</v>
+        <v>-0.0267</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>85.6367624462639</v>
+        <v>85.624449176444</v>
       </c>
       <c r="B228" s="1" t="n">
         <v>42461</v>
@@ -28121,15 +28121,15 @@
         <v>77</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.0868</v>
+        <v>-0.0869</v>
       </c>
       <c r="E228" t="n">
-        <v>-0.0001</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>87.2347651855771</v>
+        <v>87.3030281868108</v>
       </c>
       <c r="B229" s="1" t="n">
         <v>42461</v>
@@ -28138,15 +28138,15 @@
         <v>78</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.049</v>
+        <v>-0.0484</v>
       </c>
       <c r="E229" t="n">
-        <v>-0.0052</v>
+        <v>-0.0044</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>70.5300333265836</v>
+        <v>70.6387768297415</v>
       </c>
       <c r="B230" s="1" t="n">
         <v>42491</v>
@@ -28155,15 +28155,15 @@
         <v>76</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.0625</v>
+        <v>-0.0631</v>
       </c>
       <c r="E230" t="n">
-        <v>0.0379</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>85.5861647156494</v>
+        <v>85.5993516589518</v>
       </c>
       <c r="B231" s="1" t="n">
         <v>42491</v>
@@ -28172,15 +28172,15 @@
         <v>77</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.0773</v>
+        <v>-0.0772</v>
       </c>
       <c r="E231" t="n">
-        <v>-0.0006</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>87.169299608764</v>
+        <v>87.1384883131473</v>
       </c>
       <c r="B232" s="1" t="n">
         <v>42491</v>
@@ -28189,15 +28189,15 @@
         <v>78</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.0517</v>
+        <v>-0.0521</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.0008</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>70.1824832444392</v>
+        <v>70.4737315325869</v>
       </c>
       <c r="B233" s="1" t="n">
         <v>42522</v>
@@ -28206,15 +28206,15 @@
         <v>76</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.0665</v>
+        <v>-0.0667</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.0049</v>
+        <v>-0.0023</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>85.1523868955127</v>
+        <v>85.1555223941437</v>
       </c>
       <c r="B234" s="1" t="n">
         <v>42522</v>
@@ -28226,12 +28226,12 @@
         <v>-0.0809</v>
       </c>
       <c r="E234" t="n">
-        <v>-0.0051</v>
+        <v>-0.0052</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>86.5750751497594</v>
+        <v>86.560965916884</v>
       </c>
       <c r="B235" s="1" t="n">
         <v>42522</v>
@@ -28243,12 +28243,12 @@
         <v>-0.0415</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.0068</v>
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>66.8732063644697</v>
+        <v>67.1003537442519</v>
       </c>
       <c r="B236" s="1" t="n">
         <v>42552</v>
@@ -28257,15 +28257,15 @@
         <v>76</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.109</v>
+        <v>-0.1088</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.0472</v>
+        <v>-0.0479</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>87.2452661732067</v>
+        <v>87.2405067827789</v>
       </c>
       <c r="B237" s="1" t="n">
         <v>42552</v>
@@ -28277,12 +28277,12 @@
         <v>-0.0347</v>
       </c>
       <c r="E237" t="n">
-        <v>0.0246</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>85.8083390986249</v>
+        <v>85.8139197216237</v>
       </c>
       <c r="B238" s="1" t="n">
         <v>42552</v>
@@ -28294,12 +28294,12 @@
         <v>-0.0494</v>
       </c>
       <c r="E238" t="n">
-        <v>-0.0089</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>66.8824033444289</v>
+        <v>67.1006439117947</v>
       </c>
       <c r="B239" s="1" t="n">
         <v>42583</v>
@@ -28308,15 +28308,15 @@
         <v>76</v>
       </c>
       <c r="D239" t="n">
-        <v>0.0648</v>
+        <v>0.0646</v>
       </c>
       <c r="E239" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>84.7056027313126</v>
+        <v>84.7085817854644</v>
       </c>
       <c r="B240" s="1" t="n">
         <v>42583</v>
@@ -28328,12 +28328,12 @@
         <v>-0.0877</v>
       </c>
       <c r="E240" t="n">
-        <v>-0.0291</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>83.9364355877507</v>
+        <v>83.9368488428702</v>
       </c>
       <c r="B241" s="1" t="n">
         <v>42583</v>
@@ -28345,12 +28345,12 @@
         <v>-0.0723</v>
       </c>
       <c r="E241" t="n">
-        <v>-0.0218</v>
+        <v>-0.0219</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>68.0199261249094</v>
+        <v>68.2386810144177</v>
       </c>
       <c r="B242" s="1" t="n">
         <v>42614</v>
@@ -28359,7 +28359,7 @@
         <v>76</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.0377</v>
+        <v>-0.0378</v>
       </c>
       <c r="E242" t="n">
         <v>0.017</v>
@@ -28367,7 +28367,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>85.3539803055792</v>
+        <v>85.3635492084141</v>
       </c>
       <c r="B243" s="1" t="n">
         <v>42614</v>
@@ -28376,7 +28376,7 @@
         <v>77</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.0411</v>
+        <v>-0.0409</v>
       </c>
       <c r="E243" t="n">
         <v>0.0077</v>
@@ -28384,7 +28384,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>85.2299308818158</v>
+        <v>85.205649721488</v>
       </c>
       <c r="B244" s="1" t="n">
         <v>42614</v>
@@ -28393,15 +28393,15 @@
         <v>78</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.0487</v>
+        <v>-0.049</v>
       </c>
       <c r="E244" t="n">
-        <v>0.0154</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>60.4028317122243</v>
+        <v>60.6199319487072</v>
       </c>
       <c r="B245" s="1" t="n">
         <v>42644</v>
@@ -28410,15 +28410,15 @@
         <v>76</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.088</v>
+        <v>-0.0879</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.112</v>
+        <v>-0.1116</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>84.395331027702</v>
+        <v>84.4416658962152</v>
       </c>
       <c r="B246" s="1" t="n">
         <v>42644</v>
@@ -28427,15 +28427,15 @@
         <v>77</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.0585</v>
+        <v>-0.0582</v>
       </c>
       <c r="E246" t="n">
-        <v>-0.0112</v>
+        <v>-0.0108</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>84.5473304062232</v>
+        <v>84.5499018036082</v>
       </c>
       <c r="B247" s="1" t="n">
         <v>42644</v>
@@ -28447,12 +28447,12 @@
         <v>-0.0515</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.008</v>
+        <v>-0.0077</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>69.6448589181279</v>
+        <v>69.8473698713637</v>
       </c>
       <c r="B248" s="1" t="n">
         <v>42675</v>
@@ -28461,15 +28461,15 @@
         <v>76</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0261</v>
+        <v>0.026</v>
       </c>
       <c r="E248" t="n">
-        <v>0.153</v>
+        <v>0.1522</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>84.4222298407082</v>
+        <v>84.4213732388784</v>
       </c>
       <c r="B249" s="1" t="n">
         <v>42675</v>
@@ -28478,15 +28478,15 @@
         <v>77</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.0213</v>
+        <v>-0.0214</v>
       </c>
       <c r="E249" t="n">
-        <v>0.0003</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>85.0126333993013</v>
+        <v>85.0133566184468</v>
       </c>
       <c r="B250" s="1" t="n">
         <v>42675</v>
@@ -28495,7 +28495,7 @@
         <v>78</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.0412</v>
+        <v>-0.041</v>
       </c>
       <c r="E250" t="n">
         <v>0.0055</v>
@@ -28503,7 +28503,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>71.8233062644202</v>
+        <v>71.930562706907</v>
       </c>
       <c r="B251" s="1" t="n">
         <v>42705</v>
@@ -28512,15 +28512,15 @@
         <v>76</v>
       </c>
       <c r="D251" t="n">
-        <v>0.1332</v>
+        <v>0.1334</v>
       </c>
       <c r="E251" t="n">
-        <v>0.0313</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>85.0112272022221</v>
+        <v>85.0026333193618</v>
       </c>
       <c r="B252" s="1" t="n">
         <v>42705</v>
@@ -28529,15 +28529,15 @@
         <v>77</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.0059</v>
+        <v>-0.006</v>
       </c>
       <c r="E252" t="n">
-        <v>0.007</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>87.3685902894905</v>
+        <v>87.3646138286846</v>
       </c>
       <c r="B253" s="1" t="n">
         <v>42705</v>
@@ -28546,7 +28546,7 @@
         <v>78</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.0032</v>
+        <v>-0.0028</v>
       </c>
       <c r="E253" t="n">
         <v>0.0277</v>
@@ -28554,7 +28554,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>68.9939680978511</v>
+        <v>69.189530034642</v>
       </c>
       <c r="B254" s="1" t="n">
         <v>42736</v>
@@ -28563,15 +28563,15 @@
         <v>76</v>
       </c>
       <c r="D254" t="n">
-        <v>0.0565</v>
+        <v>0.0563</v>
       </c>
       <c r="E254" t="n">
-        <v>-0.0394</v>
+        <v>-0.0381</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>85.7875021340841</v>
+        <v>85.7819855749828</v>
       </c>
       <c r="B255" s="1" t="n">
         <v>42736</v>
@@ -28580,15 +28580,15 @@
         <v>77</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.0024</v>
+        <v>-0.0023</v>
       </c>
       <c r="E255" t="n">
-        <v>0.0091</v>
+        <v>0.0092</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>89.4561031452115</v>
+        <v>89.424582709296</v>
       </c>
       <c r="B256" s="1" t="n">
         <v>42736</v>
@@ -28597,15 +28597,15 @@
         <v>78</v>
       </c>
       <c r="D256" t="n">
-        <v>0.0082</v>
+        <v>0.0078</v>
       </c>
       <c r="E256" t="n">
-        <v>0.0239</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>71.5359854284725</v>
+        <v>71.7928832107659</v>
       </c>
       <c r="B257" s="1" t="n">
         <v>42767</v>
@@ -28614,15 +28614,15 @@
         <v>76</v>
       </c>
       <c r="D257" t="n">
-        <v>0.0451</v>
+        <v>0.0455</v>
       </c>
       <c r="E257" t="n">
-        <v>0.0368</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>86.7040014051971</v>
+        <v>86.666956139799</v>
       </c>
       <c r="B258" s="1" t="n">
         <v>42767</v>
@@ -28631,15 +28631,15 @@
         <v>77</v>
       </c>
       <c r="D258" t="n">
-        <v>0.0267</v>
+        <v>0.0262</v>
       </c>
       <c r="E258" t="n">
-        <v>0.0107</v>
+        <v>0.0103</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>90.0814174729283</v>
+        <v>90.0859777361223</v>
       </c>
       <c r="B259" s="1" t="n">
         <v>42767</v>
@@ -28648,15 +28648,15 @@
         <v>78</v>
       </c>
       <c r="D259" t="n">
-        <v>0.0394</v>
+        <v>0.0396</v>
       </c>
       <c r="E259" t="n">
-        <v>0.007</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>69.6830034423837</v>
+        <v>69.8433775662067</v>
       </c>
       <c r="B260" s="1" t="n">
         <v>42795</v>
@@ -28665,15 +28665,15 @@
         <v>76</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.0017</v>
+        <v>-0.0031</v>
       </c>
       <c r="E260" t="n">
-        <v>-0.0259</v>
+        <v>-0.0272</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>85.7732059860296</v>
+        <v>85.7569175955653</v>
       </c>
       <c r="B261" s="1" t="n">
         <v>42795</v>
@@ -28682,15 +28682,15 @@
         <v>77</v>
       </c>
       <c r="D261" t="n">
-        <v>0.0015</v>
+        <v>0.0014</v>
       </c>
       <c r="E261" t="n">
-        <v>-0.0107</v>
+        <v>-0.0105</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>87.0879976928785</v>
+        <v>87.092427196758</v>
       </c>
       <c r="B262" s="1" t="n">
         <v>42795</v>
@@ -28699,7 +28699,7 @@
         <v>78</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.0069</v>
+        <v>-0.0068</v>
       </c>
       <c r="E262" t="n">
         <v>-0.0332</v>
@@ -28707,7 +28707,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>68.2779802155206</v>
+        <v>68.6727416410235</v>
       </c>
       <c r="B263" s="1" t="n">
         <v>42826</v>
@@ -28716,15 +28716,15 @@
         <v>76</v>
       </c>
       <c r="D263" t="n">
-        <v>0.0047</v>
+        <v>0.007</v>
       </c>
       <c r="E263" t="n">
-        <v>-0.0202</v>
+        <v>-0.0168</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>86.5881750376258</v>
+        <v>86.5801142001045</v>
       </c>
       <c r="B264" s="1" t="n">
         <v>42826</v>
@@ -28733,15 +28733,15 @@
         <v>77</v>
       </c>
       <c r="D264" t="n">
-        <v>0.0111</v>
+        <v>0.0112</v>
       </c>
       <c r="E264" t="n">
-        <v>0.0095</v>
+        <v>0.0096</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>86.0611678596675</v>
+        <v>86.1552281728437</v>
       </c>
       <c r="B265" s="1" t="n">
         <v>42826</v>
@@ -28750,15 +28750,15 @@
         <v>78</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.0135</v>
+        <v>-0.0131</v>
       </c>
       <c r="E265" t="n">
-        <v>-0.0118</v>
+        <v>-0.0108</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>71.9682235364882</v>
+        <v>72.035883519144</v>
       </c>
       <c r="B266" s="1" t="n">
         <v>42856</v>
@@ -28767,15 +28767,15 @@
         <v>76</v>
       </c>
       <c r="D266" t="n">
-        <v>0.0204</v>
+        <v>0.0198</v>
       </c>
       <c r="E266" t="n">
-        <v>0.054</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>86.3613566059921</v>
+        <v>86.3921437385731</v>
       </c>
       <c r="B267" s="1" t="n">
         <v>42856</v>
@@ -28784,15 +28784,15 @@
         <v>77</v>
       </c>
       <c r="D267" t="n">
-        <v>0.0091</v>
+        <v>0.0093</v>
       </c>
       <c r="E267" t="n">
-        <v>-0.0026</v>
+        <v>-0.0022</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>87.6251470212158</v>
+        <v>87.5834945656625</v>
       </c>
       <c r="B268" s="1" t="n">
         <v>42856</v>
@@ -28801,15 +28801,15 @@
         <v>78</v>
       </c>
       <c r="D268" t="n">
-        <v>0.0052</v>
+        <v>0.0051</v>
       </c>
       <c r="E268" t="n">
-        <v>0.0182</v>
+        <v>0.0166</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>73.5575953388668</v>
+        <v>73.8213744616141</v>
       </c>
       <c r="B269" s="1" t="n">
         <v>42887</v>
@@ -28818,15 +28818,15 @@
         <v>76</v>
       </c>
       <c r="D269" t="n">
-        <v>0.0481</v>
+        <v>0.0475</v>
       </c>
       <c r="E269" t="n">
-        <v>0.0221</v>
+        <v>0.0248</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>86.82650324686</v>
+        <v>86.835884389157</v>
       </c>
       <c r="B270" s="1" t="n">
         <v>42887</v>
@@ -28838,12 +28838,12 @@
         <v>0.0197</v>
       </c>
       <c r="E270" t="n">
-        <v>0.0054</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>87.9571775744979</v>
+        <v>87.9354842923454</v>
       </c>
       <c r="B271" s="1" t="n">
         <v>42887</v>
@@ -28852,15 +28852,15 @@
         <v>78</v>
       </c>
       <c r="D271" t="n">
-        <v>0.016</v>
+        <v>0.0159</v>
       </c>
       <c r="E271" t="n">
-        <v>0.0038</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>71.8960741264615</v>
+        <v>72.1192116327968</v>
       </c>
       <c r="B272" s="1" t="n">
         <v>42917</v>
@@ -28869,15 +28869,15 @@
         <v>76</v>
       </c>
       <c r="D272" t="n">
-        <v>0.0751</v>
+        <v>0.0748</v>
       </c>
       <c r="E272" t="n">
-        <v>-0.0226</v>
+        <v>-0.0231</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>87.8123959418631</v>
+        <v>87.8110051580371</v>
       </c>
       <c r="B273" s="1" t="n">
         <v>42917</v>
@@ -28889,12 +28889,12 @@
         <v>0.0065</v>
       </c>
       <c r="E273" t="n">
-        <v>0.0114</v>
+        <v>0.0112</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>89.2055654281464</v>
+        <v>89.2036119391137</v>
       </c>
       <c r="B274" s="1" t="n">
         <v>42917</v>
@@ -28903,15 +28903,15 @@
         <v>78</v>
       </c>
       <c r="D274" t="n">
-        <v>0.0396</v>
+        <v>0.0395</v>
       </c>
       <c r="E274" t="n">
-        <v>0.0142</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>73.6435302437998</v>
+        <v>73.9639367770951</v>
       </c>
       <c r="B275" s="1" t="n">
         <v>42948</v>
@@ -28920,15 +28920,15 @@
         <v>76</v>
       </c>
       <c r="D275" t="n">
-        <v>0.1011</v>
+        <v>0.1023</v>
       </c>
       <c r="E275" t="n">
-        <v>0.0243</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>86.5893663832971</v>
+        <v>86.6046308021271</v>
       </c>
       <c r="B276" s="1" t="n">
         <v>42948</v>
@@ -28937,15 +28937,15 @@
         <v>77</v>
       </c>
       <c r="D276" t="n">
-        <v>0.0222</v>
+        <v>0.0224</v>
       </c>
       <c r="E276" t="n">
-        <v>-0.0139</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>89.9598414155436</v>
+        <v>89.9331440580507</v>
       </c>
       <c r="B277" s="1" t="n">
         <v>42948</v>
@@ -28954,15 +28954,15 @@
         <v>78</v>
       </c>
       <c r="D277" t="n">
-        <v>0.0718</v>
+        <v>0.0714</v>
       </c>
       <c r="E277" t="n">
-        <v>0.0085</v>
+        <v>0.0082</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>73.0142852440342</v>
+        <v>73.2289023682274</v>
       </c>
       <c r="B278" s="1" t="n">
         <v>42979</v>
@@ -28971,15 +28971,15 @@
         <v>76</v>
       </c>
       <c r="D278" t="n">
-        <v>0.0734</v>
+        <v>0.0731</v>
       </c>
       <c r="E278" t="n">
-        <v>-0.0085</v>
+        <v>-0.0099</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>87.3903051243026</v>
+        <v>87.3786366662226</v>
       </c>
       <c r="B279" s="1" t="n">
         <v>42979</v>
@@ -28988,15 +28988,15 @@
         <v>77</v>
       </c>
       <c r="D279" t="n">
-        <v>0.0239</v>
+        <v>0.0236</v>
       </c>
       <c r="E279" t="n">
-        <v>0.0092</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>89.2238033440199</v>
+        <v>89.2368515056529</v>
       </c>
       <c r="B280" s="1" t="n">
         <v>42979</v>
@@ -29005,15 +29005,15 @@
         <v>78</v>
       </c>
       <c r="D280" t="n">
-        <v>0.0469</v>
+        <v>0.0473</v>
       </c>
       <c r="E280" t="n">
-        <v>-0.0082</v>
+        <v>-0.0077</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>71.1955375694636</v>
+        <v>71.4297735512485</v>
       </c>
       <c r="B281" s="1" t="n">
         <v>43009</v>
@@ -29022,15 +29022,15 @@
         <v>76</v>
       </c>
       <c r="D281" t="n">
-        <v>0.1787</v>
+        <v>0.1783</v>
       </c>
       <c r="E281" t="n">
-        <v>-0.0249</v>
+        <v>-0.0246</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>87.5918788427052</v>
+        <v>87.6775324443751</v>
       </c>
       <c r="B282" s="1" t="n">
         <v>43009</v>
@@ -29039,15 +29039,15 @@
         <v>77</v>
       </c>
       <c r="D282" t="n">
-        <v>0.0379</v>
+        <v>0.0383</v>
       </c>
       <c r="E282" t="n">
-        <v>0.0023</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>90.3527152639298</v>
+        <v>90.3148665167135</v>
       </c>
       <c r="B283" s="1" t="n">
         <v>43009</v>
@@ -29056,15 +29056,15 @@
         <v>78</v>
       </c>
       <c r="D283" t="n">
-        <v>0.0687</v>
+        <v>0.0682</v>
       </c>
       <c r="E283" t="n">
-        <v>0.0127</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>75.2430865543544</v>
+        <v>75.4498147230211</v>
       </c>
       <c r="B284" s="1" t="n">
         <v>43040</v>
@@ -29073,15 +29073,15 @@
         <v>76</v>
       </c>
       <c r="D284" t="n">
-        <v>0.0804</v>
+        <v>0.0802</v>
       </c>
       <c r="E284" t="n">
-        <v>0.0569</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>88.3992666036665</v>
+        <v>88.4057542926453</v>
       </c>
       <c r="B285" s="1" t="n">
         <v>43040</v>
@@ -29090,15 +29090,15 @@
         <v>77</v>
       </c>
       <c r="D285" t="n">
-        <v>0.0471</v>
+        <v>0.0472</v>
       </c>
       <c r="E285" t="n">
-        <v>0.0092</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>90.1145371262169</v>
+        <v>90.1074206729404</v>
       </c>
       <c r="B286" s="1" t="n">
         <v>43040</v>
@@ -29107,15 +29107,15 @@
         <v>78</v>
       </c>
       <c r="D286" t="n">
-        <v>0.06</v>
+        <v>0.0599</v>
       </c>
       <c r="E286" t="n">
-        <v>-0.0026</v>
+        <v>-0.0023</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>77.3202873208359</v>
+        <v>77.4458672437465</v>
       </c>
       <c r="B287" s="1" t="n">
         <v>43070</v>
@@ -29124,15 +29124,15 @@
         <v>76</v>
       </c>
       <c r="D287" t="n">
-        <v>0.0765</v>
+        <v>0.0767</v>
       </c>
       <c r="E287" t="n">
-        <v>0.0276</v>
+        <v>0.0265</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>89.9923714493714</v>
+        <v>89.9818862679755</v>
       </c>
       <c r="B288" s="1" t="n">
         <v>43070</v>
@@ -29144,12 +29144,12 @@
         <v>0.0586</v>
       </c>
       <c r="E288" t="n">
-        <v>0.018</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>93.873055061926</v>
+        <v>93.8859896935238</v>
       </c>
       <c r="B289" s="1" t="n">
         <v>43070</v>
@@ -29158,15 +29158,15 @@
         <v>78</v>
       </c>
       <c r="D289" t="n">
-        <v>0.0744</v>
+        <v>0.0746</v>
       </c>
       <c r="E289" t="n">
-        <v>0.0417</v>
+        <v>0.0419</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>79.2801916802244</v>
+        <v>79.4922488244712</v>
       </c>
       <c r="B290" s="1" t="n">
         <v>43101</v>
@@ -29175,15 +29175,15 @@
         <v>76</v>
       </c>
       <c r="D290" t="n">
-        <v>0.1491</v>
+        <v>0.1489</v>
       </c>
       <c r="E290" t="n">
-        <v>0.0253</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>87.4019921268789</v>
+        <v>87.356709568751</v>
       </c>
       <c r="B291" s="1" t="n">
         <v>43101</v>
@@ -29192,15 +29192,15 @@
         <v>77</v>
       </c>
       <c r="D291" t="n">
-        <v>0.0188</v>
+        <v>0.0184</v>
       </c>
       <c r="E291" t="n">
-        <v>-0.0288</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>91.8503144407617</v>
+        <v>91.8608580490645</v>
       </c>
       <c r="B292" s="1" t="n">
         <v>43101</v>
@@ -29209,15 +29209,15 @@
         <v>78</v>
       </c>
       <c r="D292" t="n">
-        <v>0.0268</v>
+        <v>0.0272</v>
       </c>
       <c r="E292" t="n">
-        <v>-0.0215</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>76.8674108705909</v>
+        <v>77.1721191816155</v>
       </c>
       <c r="B293" s="1" t="n">
         <v>43132</v>
@@ -29226,15 +29226,15 @@
         <v>76</v>
       </c>
       <c r="D293" t="n">
-        <v>0.0745</v>
+        <v>0.0749</v>
       </c>
       <c r="E293" t="n">
-        <v>-0.0304</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>87.3143543763049</v>
+        <v>87.2409104698001</v>
       </c>
       <c r="B294" s="1" t="n">
         <v>43132</v>
@@ -29243,15 +29243,15 @@
         <v>77</v>
       </c>
       <c r="D294" t="n">
-        <v>0.007</v>
+        <v>0.0066</v>
       </c>
       <c r="E294" t="n">
-        <v>-0.001</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>91.6640967785209</v>
+        <v>91.6785729896368</v>
       </c>
       <c r="B295" s="1" t="n">
         <v>43132</v>
@@ -29260,7 +29260,7 @@
         <v>78</v>
       </c>
       <c r="D295" t="n">
-        <v>0.0176</v>
+        <v>0.0177</v>
       </c>
       <c r="E295" t="n">
         <v>-0.002</v>
@@ -29268,7 +29268,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>81.3964845990486</v>
+        <v>81.6198973287176</v>
       </c>
       <c r="B296" s="1" t="n">
         <v>43160</v>
@@ -29277,15 +29277,15 @@
         <v>76</v>
       </c>
       <c r="D296" t="n">
-        <v>0.1681</v>
+        <v>0.1686</v>
       </c>
       <c r="E296" t="n">
-        <v>0.0589</v>
+        <v>0.0576</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>87.4020216643749</v>
+        <v>87.3670675869549</v>
       </c>
       <c r="B297" s="1" t="n">
         <v>43160</v>
@@ -29294,15 +29294,15 @@
         <v>77</v>
       </c>
       <c r="D297" t="n">
-        <v>0.019</v>
+        <v>0.0188</v>
       </c>
       <c r="E297" t="n">
-        <v>0.001</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>93.0461690579438</v>
+        <v>93.0631195051846</v>
       </c>
       <c r="B298" s="1" t="n">
         <v>43160</v>
@@ -29311,7 +29311,7 @@
         <v>78</v>
       </c>
       <c r="D298" t="n">
-        <v>0.0684</v>
+        <v>0.0686</v>
       </c>
       <c r="E298" t="n">
         <v>0.0151</v>
@@ -29319,7 +29319,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>79.3082314965641</v>
+        <v>79.7403420735132</v>
       </c>
       <c r="B299" s="1" t="n">
         <v>43191</v>
@@ -29328,15 +29328,15 @@
         <v>76</v>
       </c>
       <c r="D299" t="n">
-        <v>0.1615</v>
+        <v>0.1612</v>
       </c>
       <c r="E299" t="n">
-        <v>-0.0257</v>
+        <v>-0.023</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>88.768386845102</v>
+        <v>88.7741925447278</v>
       </c>
       <c r="B300" s="1" t="n">
         <v>43191</v>
@@ -29345,15 +29345,15 @@
         <v>77</v>
       </c>
       <c r="D300" t="n">
-        <v>0.0252</v>
+        <v>0.0253</v>
       </c>
       <c r="E300" t="n">
-        <v>0.0156</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>92.6909366601704</v>
+        <v>92.8291764616039</v>
       </c>
       <c r="B301" s="1" t="n">
         <v>43191</v>
@@ -29362,15 +29362,15 @@
         <v>78</v>
       </c>
       <c r="D301" t="n">
-        <v>0.077</v>
+        <v>0.0775</v>
       </c>
       <c r="E301" t="n">
-        <v>-0.0038</v>
+        <v>-0.0025</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>66.7357404416745</v>
+        <v>66.7730647675968</v>
       </c>
       <c r="B302" s="1" t="n">
         <v>43221</v>
@@ -29379,15 +29379,15 @@
         <v>76</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.0727</v>
+        <v>-0.0731</v>
       </c>
       <c r="E302" t="n">
-        <v>-0.1585</v>
+        <v>-0.1626</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>82.0274281249342</v>
+        <v>82.0978688968307</v>
       </c>
       <c r="B303" s="1" t="n">
         <v>43221</v>
@@ -29396,15 +29396,15 @@
         <v>77</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.0502</v>
+        <v>-0.0497</v>
       </c>
       <c r="E303" t="n">
-        <v>-0.0759</v>
+        <v>-0.0752</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>78.4567608155112</v>
+        <v>78.3190506024169</v>
       </c>
       <c r="B304" s="1" t="n">
         <v>43221</v>
@@ -29413,15 +29413,15 @@
         <v>78</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.1046</v>
+        <v>-0.1058</v>
       </c>
       <c r="E304" t="n">
-        <v>-0.1536</v>
+        <v>-0.1563</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>79.8755415195765</v>
+        <v>80.099469433651</v>
       </c>
       <c r="B305" s="1" t="n">
         <v>43252</v>
@@ -29430,15 +29430,15 @@
         <v>76</v>
       </c>
       <c r="D305" t="n">
-        <v>0.0859</v>
+        <v>0.085</v>
       </c>
       <c r="E305" t="n">
-        <v>0.1969</v>
+        <v>0.1996</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>88.5638199937735</v>
+        <v>88.5593621272455</v>
       </c>
       <c r="B306" s="1" t="n">
         <v>43252</v>
@@ -29447,15 +29447,15 @@
         <v>77</v>
       </c>
       <c r="D306" t="n">
-        <v>0.02</v>
+        <v>0.0198</v>
       </c>
       <c r="E306" t="n">
-        <v>0.0797</v>
+        <v>0.0787</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>92.8956735945626</v>
+        <v>92.9032420132848</v>
       </c>
       <c r="B307" s="1" t="n">
         <v>43252</v>
@@ -29464,15 +29464,15 @@
         <v>78</v>
       </c>
       <c r="D307" t="n">
-        <v>0.0561</v>
+        <v>0.0565</v>
       </c>
       <c r="E307" t="n">
-        <v>0.184</v>
+        <v>0.1862</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>76.5469629517318</v>
+        <v>76.7523668165999</v>
       </c>
       <c r="B308" s="1" t="n">
         <v>43282</v>
@@ -29481,15 +29481,15 @@
         <v>76</v>
       </c>
       <c r="D308" t="n">
-        <v>0.0647</v>
+        <v>0.0642</v>
       </c>
       <c r="E308" t="n">
-        <v>-0.0417</v>
+        <v>-0.0418</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>90.6376869698881</v>
+        <v>90.6634084201039</v>
       </c>
       <c r="B309" s="1" t="n">
         <v>43282</v>
@@ -29498,15 +29498,15 @@
         <v>77</v>
       </c>
       <c r="D309" t="n">
-        <v>0.0322</v>
+        <v>0.0325</v>
       </c>
       <c r="E309" t="n">
-        <v>0.0234</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>91.5502982125335</v>
+        <v>91.5004579483812</v>
       </c>
       <c r="B310" s="1" t="n">
         <v>43282</v>
@@ -29515,15 +29515,15 @@
         <v>78</v>
       </c>
       <c r="D310" t="n">
-        <v>0.0263</v>
+        <v>0.0257</v>
       </c>
       <c r="E310" t="n">
-        <v>-0.0145</v>
+        <v>-0.0151</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>81.4028686198445</v>
+        <v>81.8293382599113</v>
       </c>
       <c r="B311" s="1" t="n">
         <v>43313</v>
@@ -29532,15 +29532,15 @@
         <v>76</v>
       </c>
       <c r="D311" t="n">
-        <v>0.1054</v>
+        <v>0.1063</v>
       </c>
       <c r="E311" t="n">
-        <v>0.0634</v>
+        <v>0.0661</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>87.4311259437476</v>
+        <v>87.4469976171635</v>
       </c>
       <c r="B312" s="1" t="n">
         <v>43313</v>
@@ -29552,12 +29552,12 @@
         <v>0.0097</v>
       </c>
       <c r="E312" t="n">
-        <v>-0.0354</v>
+        <v>-0.0355</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>91.7487548728646</v>
+        <v>91.7274375640261</v>
       </c>
       <c r="B313" s="1" t="n">
         <v>43313</v>
@@ -29566,15 +29566,15 @@
         <v>78</v>
       </c>
       <c r="D313" t="n">
-        <v>0.0199</v>
+        <v>0.02</v>
       </c>
       <c r="E313" t="n">
-        <v>0.0022</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>76.3335371564973</v>
+        <v>76.5470282541139</v>
       </c>
       <c r="B314" s="1" t="n">
         <v>43344</v>
@@ -29583,15 +29583,15 @@
         <v>76</v>
       </c>
       <c r="D314" t="n">
-        <v>0.0455</v>
+        <v>0.0453</v>
       </c>
       <c r="E314" t="n">
-        <v>-0.0623</v>
+        <v>-0.0646</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>85.8457205386615</v>
+        <v>85.8503465259236</v>
       </c>
       <c r="B315" s="1" t="n">
         <v>43344</v>
@@ -29600,15 +29600,15 @@
         <v>77</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.0177</v>
+        <v>-0.0175</v>
       </c>
       <c r="E315" t="n">
-        <v>-0.0181</v>
+        <v>-0.0183</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>89.2632334166851</v>
+        <v>89.2492309330943</v>
       </c>
       <c r="B316" s="1" t="n">
         <v>43344</v>
@@ -29617,15 +29617,15 @@
         <v>78</v>
       </c>
       <c r="D316" t="n">
-        <v>0.0004</v>
+        <v>0.0001</v>
       </c>
       <c r="E316" t="n">
-        <v>-0.0271</v>
+        <v>-0.027</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>79.5685798446489</v>
+        <v>79.8373881078935</v>
       </c>
       <c r="B317" s="1" t="n">
         <v>43374</v>
@@ -29634,15 +29634,15 @@
         <v>76</v>
       </c>
       <c r="D317" t="n">
-        <v>0.1176</v>
+        <v>0.1177</v>
       </c>
       <c r="E317" t="n">
-        <v>0.0424</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>85.7689525866084</v>
+        <v>85.8584498044235</v>
       </c>
       <c r="B318" s="1" t="n">
         <v>43374</v>
@@ -29651,15 +29651,15 @@
         <v>77</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.0208</v>
+        <v>-0.0207</v>
       </c>
       <c r="E318" t="n">
-        <v>-0.0009</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>90.1182751453381</v>
+        <v>90.1105758192202</v>
       </c>
       <c r="B319" s="1" t="n">
         <v>43374</v>
@@ -29668,15 +29668,15 @@
         <v>78</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.0026</v>
+        <v>-0.0023</v>
       </c>
       <c r="E319" t="n">
-        <v>0.0096</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>77.1770757793244</v>
+        <v>77.4214331354924</v>
       </c>
       <c r="B320" s="1" t="n">
         <v>43405</v>
@@ -29685,15 +29685,15 @@
         <v>76</v>
       </c>
       <c r="D320" t="n">
-        <v>0.0257</v>
+        <v>0.0261</v>
       </c>
       <c r="E320" t="n">
-        <v>-0.0301</v>
+        <v>-0.0303</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>86.880871931128</v>
+        <v>86.9001297016861</v>
       </c>
       <c r="B321" s="1" t="n">
         <v>43405</v>
@@ -29702,15 +29702,15 @@
         <v>77</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.0172</v>
+        <v>-0.017</v>
       </c>
       <c r="E321" t="n">
-        <v>0.013</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>89.2102680973634</v>
+        <v>89.1907401480809</v>
       </c>
       <c r="B322" s="1" t="n">
         <v>43405</v>
@@ -29719,15 +29719,15 @@
         <v>78</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.01</v>
+        <v>-0.0102</v>
       </c>
       <c r="E322" t="n">
-        <v>-0.0101</v>
+        <v>-0.0102</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>73.3196309636979</v>
+        <v>73.3054965937332</v>
       </c>
       <c r="B323" s="1" t="n">
         <v>43435</v>
@@ -29736,15 +29736,15 @@
         <v>76</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.0517</v>
+        <v>-0.0535</v>
       </c>
       <c r="E323" t="n">
-        <v>-0.05</v>
+        <v>-0.0532</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>86.850684610236</v>
+        <v>86.8388677347044</v>
       </c>
       <c r="B324" s="1" t="n">
         <v>43435</v>
@@ -29756,12 +29756,12 @@
         <v>-0.0349</v>
       </c>
       <c r="E324" t="n">
-        <v>-0.0003</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>90.0873561000805</v>
+        <v>90.1171674624033</v>
       </c>
       <c r="B325" s="1" t="n">
         <v>43435</v>
@@ -29770,15 +29770,15 @@
         <v>78</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.0403</v>
+        <v>-0.0401</v>
       </c>
       <c r="E325" t="n">
-        <v>0.0098</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>74.292206606863</v>
+        <v>74.5475837748716</v>
       </c>
       <c r="B326" s="1" t="n">
         <v>43466</v>
@@ -29787,15 +29787,15 @@
         <v>76</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.0629</v>
+        <v>-0.0622</v>
       </c>
       <c r="E326" t="n">
-        <v>0.0133</v>
+        <v>0.0169</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>86.5876827460262</v>
+        <v>86.5242281627229</v>
       </c>
       <c r="B327" s="1" t="n">
         <v>43466</v>
@@ -29804,15 +29804,15 @@
         <v>77</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.0093</v>
+        <v>-0.0095</v>
       </c>
       <c r="E327" t="n">
-        <v>-0.003</v>
+        <v>-0.0036</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>89.9357352115875</v>
+        <v>89.94728192689</v>
       </c>
       <c r="B328" s="1" t="n">
         <v>43466</v>
@@ -29824,12 +29824,12 @@
         <v>-0.0208</v>
       </c>
       <c r="E328" t="n">
-        <v>-0.0017</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>75.6482025490198</v>
+        <v>76.1057134389396</v>
       </c>
       <c r="B329" s="1" t="n">
         <v>43497</v>
@@ -29838,15 +29838,15 @@
         <v>76</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.0159</v>
+        <v>-0.0138</v>
       </c>
       <c r="E329" t="n">
-        <v>0.0183</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>86.0636777215012</v>
+        <v>85.943243770937</v>
       </c>
       <c r="B330" s="1" t="n">
         <v>43497</v>
@@ -29855,15 +29855,15 @@
         <v>77</v>
       </c>
       <c r="D330" t="n">
-        <v>-0.0143</v>
+        <v>-0.0149</v>
       </c>
       <c r="E330" t="n">
-        <v>-0.0061</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>91.1871375967853</v>
+        <v>91.2312757391859</v>
       </c>
       <c r="B331" s="1" t="n">
         <v>43497</v>
@@ -29872,15 +29872,15 @@
         <v>78</v>
       </c>
       <c r="D331" t="n">
-        <v>-0.0052</v>
+        <v>-0.0049</v>
       </c>
       <c r="E331" t="n">
-        <v>0.0139</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>75.1206230804297</v>
+        <v>75.0852342142353</v>
       </c>
       <c r="B332" s="1" t="n">
         <v>43525</v>
@@ -29889,15 +29889,15 @@
         <v>76</v>
       </c>
       <c r="D332" t="n">
-        <v>-0.0771</v>
+        <v>-0.0801</v>
       </c>
       <c r="E332" t="n">
-        <v>-0.007</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>85.0056741529778</v>
+        <v>84.929408432116</v>
       </c>
       <c r="B333" s="1" t="n">
         <v>43525</v>
@@ -29906,15 +29906,15 @@
         <v>77</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.0274</v>
+        <v>-0.0279</v>
       </c>
       <c r="E333" t="n">
-        <v>-0.0123</v>
+        <v>-0.0118</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>90.6576150332679</v>
+        <v>90.6921376065804</v>
       </c>
       <c r="B334" s="1" t="n">
         <v>43525</v>
@@ -29923,15 +29923,15 @@
         <v>78</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.0257</v>
+        <v>-0.0255</v>
       </c>
       <c r="E334" t="n">
-        <v>-0.0058</v>
+        <v>-0.0059</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>83.307591099478</v>
+        <v>84.006605413966</v>
       </c>
       <c r="B335" s="1" t="n">
         <v>43556</v>
@@ -29940,15 +29940,15 @@
         <v>76</v>
       </c>
       <c r="D335" t="n">
-        <v>0.0504</v>
+        <v>0.0535</v>
       </c>
       <c r="E335" t="n">
-        <v>0.109</v>
+        <v>0.1188</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>84.3253074705644</v>
+        <v>84.321377009906</v>
       </c>
       <c r="B336" s="1" t="n">
         <v>43556</v>
@@ -29957,15 +29957,15 @@
         <v>77</v>
       </c>
       <c r="D336" t="n">
-        <v>-0.0501</v>
+        <v>-0.0502</v>
       </c>
       <c r="E336" t="n">
-        <v>-0.008</v>
+        <v>-0.0072</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>93.0565591433505</v>
+        <v>93.2907924491522</v>
       </c>
       <c r="B337" s="1" t="n">
         <v>43556</v>
@@ -29974,15 +29974,15 @@
         <v>78</v>
       </c>
       <c r="D337" t="n">
-        <v>0.0039</v>
+        <v>0.005</v>
       </c>
       <c r="E337" t="n">
-        <v>0.0265</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>81.8253411710489</v>
+        <v>81.7238473494596</v>
       </c>
       <c r="B338" s="1" t="n">
         <v>43586</v>
@@ -29991,15 +29991,15 @@
         <v>76</v>
       </c>
       <c r="D338" t="n">
-        <v>0.2261</v>
+        <v>0.2239</v>
       </c>
       <c r="E338" t="n">
-        <v>-0.0178</v>
+        <v>-0.0272</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>85.1562267699901</v>
+        <v>85.2818567397468</v>
       </c>
       <c r="B339" s="1" t="n">
         <v>43586</v>
@@ -30008,15 +30008,15 @@
         <v>77</v>
       </c>
       <c r="D339" t="n">
-        <v>0.0381</v>
+        <v>0.0388</v>
       </c>
       <c r="E339" t="n">
-        <v>0.0099</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>91.3967580722875</v>
+        <v>91.1366514955042</v>
       </c>
       <c r="B340" s="1" t="n">
         <v>43586</v>
@@ -30025,15 +30025,15 @@
         <v>78</v>
       </c>
       <c r="D340" t="n">
-        <v>0.1649</v>
+        <v>0.1637</v>
       </c>
       <c r="E340" t="n">
-        <v>-0.0178</v>
+        <v>-0.0231</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>75.8368104634101</v>
+        <v>75.9660127757767</v>
       </c>
       <c r="B341" s="1" t="n">
         <v>43617</v>
@@ -30042,15 +30042,15 @@
         <v>76</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.0506</v>
+        <v>-0.0516</v>
       </c>
       <c r="E341" t="n">
-        <v>-0.0732</v>
+        <v>-0.0705</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>84.461790393658</v>
+        <v>84.4877059086882</v>
       </c>
       <c r="B342" s="1" t="n">
         <v>43617</v>
@@ -30059,15 +30059,15 @@
         <v>77</v>
       </c>
       <c r="D342" t="n">
-        <v>-0.0463</v>
+        <v>-0.046</v>
       </c>
       <c r="E342" t="n">
-        <v>-0.0082</v>
+        <v>-0.0093</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>90.4236572397241</v>
+        <v>90.3843098795769</v>
       </c>
       <c r="B343" s="1" t="n">
         <v>43617</v>
@@ -30076,15 +30076,15 @@
         <v>78</v>
       </c>
       <c r="D343" t="n">
-        <v>-0.0266</v>
+        <v>-0.0271</v>
       </c>
       <c r="E343" t="n">
-        <v>-0.0106</v>
+        <v>-0.0083</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>80.5359983960148</v>
+        <v>80.7557583748857</v>
       </c>
       <c r="B344" s="1" t="n">
         <v>43647</v>
@@ -30093,15 +30093,15 @@
         <v>76</v>
       </c>
       <c r="D344" t="n">
-        <v>0.0521</v>
+        <v>0.0522</v>
       </c>
       <c r="E344" t="n">
-        <v>0.062</v>
+        <v>0.0631</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>84.2642830038688</v>
+        <v>84.2864925436546</v>
       </c>
       <c r="B345" s="1" t="n">
         <v>43647</v>
@@ -30113,12 +30113,12 @@
         <v>-0.0703</v>
       </c>
       <c r="E345" t="n">
-        <v>-0.0023</v>
+        <v>-0.0024</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>90.6698942251122</v>
+        <v>90.6364804242768</v>
       </c>
       <c r="B346" s="1" t="n">
         <v>43647</v>
@@ -30127,15 +30127,15 @@
         <v>78</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.0096</v>
+        <v>-0.0094</v>
       </c>
       <c r="E346" t="n">
-        <v>0.0027</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>77.6267701942039</v>
+        <v>78.153485822714</v>
       </c>
       <c r="B347" s="1" t="n">
         <v>43678</v>
@@ -30144,15 +30144,15 @@
         <v>76</v>
       </c>
       <c r="D347" t="n">
-        <v>-0.0464</v>
+        <v>-0.0449</v>
       </c>
       <c r="E347" t="n">
-        <v>-0.0361</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>85.3352830706236</v>
+        <v>85.3585474277605</v>
       </c>
       <c r="B348" s="1" t="n">
         <v>43678</v>
@@ -30161,7 +30161,7 @@
         <v>77</v>
       </c>
       <c r="D348" t="n">
-        <v>-0.024</v>
+        <v>-0.0239</v>
       </c>
       <c r="E348" t="n">
         <v>0.0127</v>
@@ -30169,7 +30169,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>91.0998367631166</v>
+        <v>91.0733978463615</v>
       </c>
       <c r="B349" s="1" t="n">
         <v>43678</v>
@@ -30181,12 +30181,12 @@
         <v>-0.0071</v>
       </c>
       <c r="E349" t="n">
-        <v>0.0047</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>77.1804772654047</v>
+        <v>77.3829909389682</v>
       </c>
       <c r="B350" s="1" t="n">
         <v>43709</v>
@@ -30195,15 +30195,15 @@
         <v>76</v>
       </c>
       <c r="D350" t="n">
-        <v>0.0111</v>
+        <v>0.0109</v>
       </c>
       <c r="E350" t="n">
-        <v>-0.0057</v>
+        <v>-0.0099</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>85.4139906515794</v>
+        <v>85.4413229591676</v>
       </c>
       <c r="B351" s="1" t="n">
         <v>43709</v>
@@ -30212,15 +30212,15 @@
         <v>77</v>
       </c>
       <c r="D351" t="n">
-        <v>-0.005</v>
+        <v>-0.0048</v>
       </c>
       <c r="E351" t="n">
-        <v>0.0009</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>90.9169652308955</v>
+        <v>90.8787635042019</v>
       </c>
       <c r="B352" s="1" t="n">
         <v>43709</v>
@@ -30229,15 +30229,15 @@
         <v>78</v>
       </c>
       <c r="D352" t="n">
-        <v>0.0185</v>
+        <v>0.0183</v>
       </c>
       <c r="E352" t="n">
-        <v>-0.002</v>
+        <v>-0.0021</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>77.5449549776908</v>
+        <v>77.8914445200659</v>
       </c>
       <c r="B353" s="1" t="n">
         <v>43739</v>
@@ -30246,15 +30246,15 @@
         <v>76</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.0254</v>
+        <v>-0.0244</v>
       </c>
       <c r="E353" t="n">
-        <v>0.0047</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>86.3325280099152</v>
+        <v>86.4311143051616</v>
       </c>
       <c r="B354" s="1" t="n">
         <v>43739</v>
@@ -30263,15 +30263,15 @@
         <v>77</v>
       </c>
       <c r="D354" t="n">
-        <v>0.0066</v>
+        <v>0.0067</v>
       </c>
       <c r="E354" t="n">
-        <v>0.0108</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>94.8438949958274</v>
+        <v>94.8181445026851</v>
       </c>
       <c r="B355" s="1" t="n">
         <v>43739</v>
@@ -30280,15 +30280,15 @@
         <v>78</v>
       </c>
       <c r="D355" t="n">
-        <v>0.0524</v>
+        <v>0.0522</v>
       </c>
       <c r="E355" t="n">
-        <v>0.0432</v>
+        <v>0.0433</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>74.3750891518529</v>
+        <v>74.6499728943492</v>
       </c>
       <c r="B356" s="1" t="n">
         <v>43770</v>
@@ -30297,15 +30297,15 @@
         <v>76</v>
       </c>
       <c r="D356" t="n">
-        <v>-0.0363</v>
+        <v>-0.0358</v>
       </c>
       <c r="E356" t="n">
-        <v>-0.0409</v>
+        <v>-0.0416</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>84.9366253332076</v>
+        <v>84.9313874831227</v>
       </c>
       <c r="B357" s="1" t="n">
         <v>43770</v>
@@ -30314,15 +30314,15 @@
         <v>77</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.0224</v>
+        <v>-0.0227</v>
       </c>
       <c r="E357" t="n">
-        <v>-0.0162</v>
+        <v>-0.0174</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>91.9331839130529</v>
+        <v>91.9703536828546</v>
       </c>
       <c r="B358" s="1" t="n">
         <v>43770</v>
@@ -30331,15 +30331,15 @@
         <v>78</v>
       </c>
       <c r="D358" t="n">
-        <v>0.0305</v>
+        <v>0.0312</v>
       </c>
       <c r="E358" t="n">
-        <v>-0.0307</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>68.4490420477545</v>
+        <v>68.1816280720488</v>
       </c>
       <c r="B359" s="1" t="n">
         <v>43800</v>
@@ -30348,15 +30348,15 @@
         <v>76</v>
       </c>
       <c r="D359" t="n">
-        <v>-0.0664</v>
+        <v>-0.0699</v>
       </c>
       <c r="E359" t="n">
-        <v>-0.0797</v>
+        <v>-0.0866</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>84.5275999347024</v>
+        <v>84.5265977070774</v>
       </c>
       <c r="B360" s="1" t="n">
         <v>43800</v>
@@ -30365,7 +30365,7 @@
         <v>77</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.0267</v>
+        <v>-0.0266</v>
       </c>
       <c r="E360" t="n">
         <v>-0.0048</v>
@@ -30373,7 +30373,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>90.0300599037661</v>
+        <v>90.0501356763142</v>
       </c>
       <c r="B361" s="1" t="n">
         <v>43800</v>
@@ -30382,15 +30382,15 @@
         <v>78</v>
       </c>
       <c r="D361" t="n">
-        <v>-0.0006</v>
+        <v>-0.0007</v>
       </c>
       <c r="E361" t="n">
-        <v>-0.0207</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>77.2274696434824</v>
+        <v>77.539911544926</v>
       </c>
       <c r="B362" s="1" t="n">
         <v>43831</v>
@@ -30399,15 +30399,15 @@
         <v>76</v>
       </c>
       <c r="D362" t="n">
-        <v>0.0395</v>
+        <v>0.0401</v>
       </c>
       <c r="E362" t="n">
-        <v>0.1282</v>
+        <v>0.1373</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>85.4715100020853</v>
+        <v>85.3815674339969</v>
       </c>
       <c r="B363" s="1" t="n">
         <v>43831</v>
@@ -30416,15 +30416,15 @@
         <v>77</v>
       </c>
       <c r="D363" t="n">
-        <v>-0.0129</v>
+        <v>-0.0132</v>
       </c>
       <c r="E363" t="n">
-        <v>0.0112</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>90.2941630128032</v>
+        <v>90.347824732629</v>
       </c>
       <c r="B364" s="1" t="n">
         <v>43831</v>
@@ -30433,15 +30433,15 @@
         <v>78</v>
       </c>
       <c r="D364" t="n">
-        <v>0.004</v>
+        <v>0.0045</v>
       </c>
       <c r="E364" t="n">
-        <v>0.0029</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>78.7930809184611</v>
+        <v>79.5186940939699</v>
       </c>
       <c r="B365" s="1" t="n">
         <v>43862</v>
@@ -30450,15 +30450,15 @@
         <v>76</v>
       </c>
       <c r="D365" t="n">
-        <v>0.0416</v>
+        <v>0.0448</v>
       </c>
       <c r="E365" t="n">
-        <v>0.0203</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>85.4845557294767</v>
+        <v>85.3259669313377</v>
       </c>
       <c r="B366" s="1" t="n">
         <v>43862</v>
@@ -30467,15 +30467,15 @@
         <v>77</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.0067</v>
+        <v>-0.0072</v>
       </c>
       <c r="E366" t="n">
-        <v>0.0002</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>92.1713520023272</v>
+        <v>92.2607879123734</v>
       </c>
       <c r="B367" s="1" t="n">
         <v>43862</v>
@@ -30484,15 +30484,15 @@
         <v>78</v>
       </c>
       <c r="D367" t="n">
-        <v>0.0108</v>
+        <v>0.0113</v>
       </c>
       <c r="E367" t="n">
-        <v>0.0208</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>65.5436542334537</v>
+        <v>65.2214188472424</v>
       </c>
       <c r="B368" s="1" t="n">
         <v>43891</v>
@@ -30501,15 +30501,15 @@
         <v>76</v>
       </c>
       <c r="D368" t="n">
-        <v>-0.1275</v>
+        <v>-0.1314</v>
       </c>
       <c r="E368" t="n">
-        <v>-0.1682</v>
+        <v>-0.1798</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>82.2312663846952</v>
+        <v>82.133088127929</v>
       </c>
       <c r="B369" s="1" t="n">
         <v>43891</v>
@@ -30518,15 +30518,15 @@
         <v>77</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.0326</v>
+        <v>-0.0329</v>
       </c>
       <c r="E369" t="n">
-        <v>-0.0381</v>
+        <v>-0.0374</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>78.1181585834515</v>
+        <v>78.1290183526017</v>
       </c>
       <c r="B370" s="1" t="n">
         <v>43891</v>
@@ -30535,15 +30535,15 @@
         <v>78</v>
       </c>
       <c r="D370" t="n">
-        <v>-0.1383</v>
+        <v>-0.1385</v>
       </c>
       <c r="E370" t="n">
-        <v>-0.1525</v>
+        <v>-0.1532</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>41.9719142985108</v>
+        <v>42.80511567379</v>
       </c>
       <c r="B371" s="1" t="n">
         <v>43922</v>
@@ -30552,15 +30552,15 @@
         <v>76</v>
       </c>
       <c r="D371" t="n">
-        <v>-0.4962</v>
+        <v>-0.4905</v>
       </c>
       <c r="E371" t="n">
-        <v>-0.3596</v>
+        <v>-0.3437</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>71.0319278670718</v>
+        <v>71.0086848831912</v>
       </c>
       <c r="B372" s="1" t="n">
         <v>43922</v>
@@ -30569,15 +30569,15 @@
         <v>77</v>
       </c>
       <c r="D372" t="n">
-        <v>-0.1576</v>
+        <v>-0.1579</v>
       </c>
       <c r="E372" t="n">
-        <v>-0.1362</v>
+        <v>-0.1354</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>58.0114642634821</v>
+        <v>58.3344143561165</v>
       </c>
       <c r="B373" s="1" t="n">
         <v>43922</v>
@@ -30586,15 +30586,15 @@
         <v>78</v>
       </c>
       <c r="D373" t="n">
-        <v>-0.3766</v>
+        <v>-0.3747</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.2574</v>
+        <v>-0.2534</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>49.0815089830155</v>
+        <v>48.7091946890134</v>
       </c>
       <c r="B374" s="1" t="n">
         <v>43952</v>
@@ -30603,15 +30603,15 @@
         <v>76</v>
       </c>
       <c r="D374" t="n">
-        <v>-0.4002</v>
+        <v>-0.404</v>
       </c>
       <c r="E374" t="n">
-        <v>0.1694</v>
+        <v>0.1379</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>73.9418832044087</v>
+        <v>74.1113544063866</v>
       </c>
       <c r="B375" s="1" t="n">
         <v>43952</v>
@@ -30620,15 +30620,15 @@
         <v>77</v>
       </c>
       <c r="D375" t="n">
-        <v>-0.1317</v>
+        <v>-0.131</v>
       </c>
       <c r="E375" t="n">
-        <v>0.041</v>
+        <v>0.0437</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>65.3298324573607</v>
+        <v>64.9404667104435</v>
       </c>
       <c r="B376" s="1" t="n">
         <v>43952</v>
@@ -30637,15 +30637,15 @@
         <v>78</v>
       </c>
       <c r="D376" t="n">
-        <v>-0.2852</v>
+        <v>-0.2874</v>
       </c>
       <c r="E376" t="n">
-        <v>0.1262</v>
+        <v>0.1132</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>58.9786165228433</v>
+        <v>58.9543102187203</v>
       </c>
       <c r="B377" s="1" t="n">
         <v>43983</v>
@@ -30654,15 +30654,15 @@
         <v>76</v>
       </c>
       <c r="D377" t="n">
-        <v>-0.2223</v>
+        <v>-0.2239</v>
       </c>
       <c r="E377" t="n">
-        <v>0.2016</v>
+        <v>0.2103</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>77.7157118408535</v>
+        <v>77.7779057761016</v>
       </c>
       <c r="B378" s="1" t="n">
         <v>43983</v>
@@ -30671,15 +30671,15 @@
         <v>77</v>
       </c>
       <c r="D378" t="n">
-        <v>-0.0799</v>
+        <v>-0.0794</v>
       </c>
       <c r="E378" t="n">
-        <v>0.051</v>
+        <v>0.0495</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>76.7457328049864</v>
+        <v>76.6556052329206</v>
       </c>
       <c r="B379" s="1" t="n">
         <v>43983</v>
@@ -30688,15 +30688,15 @@
         <v>78</v>
       </c>
       <c r="D379" t="n">
-        <v>-0.1513</v>
+        <v>-0.1519</v>
       </c>
       <c r="E379" t="n">
-        <v>0.1747</v>
+        <v>0.1804</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>66.2926694483707</v>
+        <v>66.4799155032116</v>
       </c>
       <c r="B380" s="1" t="n">
         <v>44013</v>
@@ -30705,15 +30705,15 @@
         <v>76</v>
       </c>
       <c r="D380" t="n">
-        <v>-0.1769</v>
+        <v>-0.1768</v>
       </c>
       <c r="E380" t="n">
-        <v>0.124</v>
+        <v>0.1277</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>86.5410135023771</v>
+        <v>86.5833633883244</v>
       </c>
       <c r="B381" s="1" t="n">
         <v>44013</v>
@@ -30722,15 +30722,15 @@
         <v>77</v>
       </c>
       <c r="D381" t="n">
-        <v>0.027</v>
+        <v>0.0273</v>
       </c>
       <c r="E381" t="n">
-        <v>0.1136</v>
+        <v>0.1132</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>83.6563253161867</v>
+        <v>83.5924756794994</v>
       </c>
       <c r="B382" s="1" t="n">
         <v>44013</v>
@@ -30739,15 +30739,15 @@
         <v>78</v>
       </c>
       <c r="D382" t="n">
-        <v>-0.0774</v>
+        <v>-0.0777</v>
       </c>
       <c r="E382" t="n">
-        <v>0.09</v>
+        <v>0.0905</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>65.490417485035</v>
+        <v>66.0263836339102</v>
       </c>
       <c r="B383" s="1" t="n">
         <v>44044</v>
@@ -30756,15 +30756,15 @@
         <v>76</v>
       </c>
       <c r="D383" t="n">
-        <v>-0.1563</v>
+        <v>-0.1552</v>
       </c>
       <c r="E383" t="n">
-        <v>-0.0121</v>
+        <v>-0.0068</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>88.427100770712</v>
+        <v>88.4581548372093</v>
       </c>
       <c r="B384" s="1" t="n">
         <v>44044</v>
@@ -30773,15 +30773,15 @@
         <v>77</v>
       </c>
       <c r="D384" t="n">
-        <v>0.0362</v>
+        <v>0.0363</v>
       </c>
       <c r="E384" t="n">
-        <v>0.0218</v>
+        <v>0.0217</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>86.3084699795364</v>
+        <v>86.2723705146556</v>
       </c>
       <c r="B385" s="1" t="n">
         <v>44044</v>
@@ -30790,15 +30790,15 @@
         <v>78</v>
       </c>
       <c r="D385" t="n">
-        <v>-0.0526</v>
+        <v>-0.0527</v>
       </c>
       <c r="E385" t="n">
-        <v>0.0317</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>77.4622420082533</v>
+        <v>77.6626524155047</v>
       </c>
       <c r="B386" s="1" t="n">
         <v>44075</v>
@@ -30807,15 +30807,15 @@
         <v>76</v>
       </c>
       <c r="D386" t="n">
-        <v>0.0037</v>
+        <v>0.0036</v>
       </c>
       <c r="E386" t="n">
-        <v>0.1828</v>
+        <v>0.1762</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>89.364857193099</v>
+        <v>89.3872355936164</v>
       </c>
       <c r="B387" s="1" t="n">
         <v>44075</v>
@@ -30824,15 +30824,15 @@
         <v>77</v>
       </c>
       <c r="D387" t="n">
-        <v>0.0463</v>
+        <v>0.0462</v>
       </c>
       <c r="E387" t="n">
-        <v>0.0106</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>90.7315715406115</v>
+        <v>90.7132690480652</v>
       </c>
       <c r="B388" s="1" t="n">
         <v>44075</v>
@@ -30841,15 +30841,15 @@
         <v>78</v>
       </c>
       <c r="D388" t="n">
-        <v>-0.002</v>
+        <v>-0.0018</v>
       </c>
       <c r="E388" t="n">
-        <v>0.0512</v>
+        <v>0.0515</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>79.5148443446055</v>
+        <v>79.9848632600464</v>
       </c>
       <c r="B389" s="1" t="n">
         <v>44105</v>
@@ -30858,15 +30858,15 @@
         <v>76</v>
       </c>
       <c r="D389" t="n">
-        <v>0.0254</v>
+        <v>0.0269</v>
       </c>
       <c r="E389" t="n">
-        <v>0.0265</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>89.6269532407654</v>
+        <v>89.7254268571794</v>
       </c>
       <c r="B390" s="1" t="n">
         <v>44105</v>
@@ -30875,15 +30875,15 @@
         <v>77</v>
       </c>
       <c r="D390" t="n">
-        <v>0.0382</v>
+        <v>0.0381</v>
       </c>
       <c r="E390" t="n">
-        <v>0.0029</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>91.2724789849469</v>
+        <v>91.2717399878115</v>
       </c>
       <c r="B391" s="1" t="n">
         <v>44105</v>
@@ -30892,15 +30892,15 @@
         <v>78</v>
       </c>
       <c r="D391" t="n">
-        <v>-0.0377</v>
+        <v>-0.0374</v>
       </c>
       <c r="E391" t="n">
-        <v>0.006</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>83.9343822412502</v>
+        <v>84.2912097445065</v>
       </c>
       <c r="B392" s="1" t="n">
         <v>44136</v>
@@ -30909,15 +30909,15 @@
         <v>76</v>
       </c>
       <c r="D392" t="n">
-        <v>0.1285</v>
+        <v>0.1292</v>
       </c>
       <c r="E392" t="n">
-        <v>0.0556</v>
+        <v>0.0538</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>89.1985413990651</v>
+        <v>89.2128132623592</v>
       </c>
       <c r="B393" s="1" t="n">
         <v>44136</v>
@@ -30926,15 +30926,15 @@
         <v>77</v>
       </c>
       <c r="D393" t="n">
-        <v>0.0502</v>
+        <v>0.0504</v>
       </c>
       <c r="E393" t="n">
-        <v>-0.0048</v>
+        <v>-0.0057</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>92.1875902789396</v>
+        <v>92.199694634091</v>
       </c>
       <c r="B394" s="1" t="n">
         <v>44136</v>
@@ -30943,15 +30943,15 @@
         <v>78</v>
       </c>
       <c r="D394" t="n">
-        <v>0.0028</v>
+        <v>0.0025</v>
       </c>
       <c r="E394" t="n">
-        <v>0.01</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>88.9470455450009</v>
+        <v>88.4356627516728</v>
       </c>
       <c r="B395" s="1" t="n">
         <v>44166</v>
@@ -30960,15 +30960,15 @@
         <v>76</v>
       </c>
       <c r="D395" t="n">
-        <v>0.2995</v>
+        <v>0.2971</v>
       </c>
       <c r="E395" t="n">
-        <v>0.0597</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>89.4698039163175</v>
+        <v>89.4538045680239</v>
       </c>
       <c r="B396" s="1" t="n">
         <v>44166</v>
@@ -30977,15 +30977,15 @@
         <v>77</v>
       </c>
       <c r="D396" t="n">
-        <v>0.0585</v>
+        <v>0.0583</v>
       </c>
       <c r="E396" t="n">
-        <v>0.003</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>91.4708753546471</v>
+        <v>91.5340291067269</v>
       </c>
       <c r="B397" s="1" t="n">
         <v>44166</v>
@@ -30994,15 +30994,15 @@
         <v>78</v>
       </c>
       <c r="D397" t="n">
-        <v>0.016</v>
+        <v>0.0165</v>
       </c>
       <c r="E397" t="n">
-        <v>-0.0078</v>
+        <v>-0.0072</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>88.8554049214815</v>
+        <v>89.2591182148573</v>
       </c>
       <c r="B398" s="1" t="n">
         <v>44197</v>
@@ -31011,15 +31011,15 @@
         <v>76</v>
       </c>
       <c r="D398" t="n">
-        <v>0.1506</v>
+        <v>0.1511</v>
       </c>
       <c r="E398" t="n">
-        <v>-0.001</v>
+        <v>0.0093</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>89.5218194467391</v>
+        <v>89.406789799085</v>
       </c>
       <c r="B399" s="1" t="n">
         <v>44197</v>
@@ -31028,15 +31028,15 @@
         <v>77</v>
       </c>
       <c r="D399" t="n">
-        <v>0.0474</v>
+        <v>0.0471</v>
       </c>
       <c r="E399" t="n">
-        <v>0.0006</v>
+        <v>-0.0005</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>92.3634982432818</v>
+        <v>92.4539652602318</v>
       </c>
       <c r="B400" s="1" t="n">
         <v>44197</v>
@@ -31045,15 +31045,15 @@
         <v>78</v>
       </c>
       <c r="D400" t="n">
-        <v>0.0229</v>
+        <v>0.0233</v>
       </c>
       <c r="E400" t="n">
-        <v>0.0098</v>
+        <v>0.0101</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>89.8043497126692</v>
+        <v>90.880284276141</v>
       </c>
       <c r="B401" s="1" t="n">
         <v>44228</v>
@@ -31062,15 +31062,15 @@
         <v>76</v>
       </c>
       <c r="D401" t="n">
-        <v>0.1397</v>
+        <v>0.1429</v>
       </c>
       <c r="E401" t="n">
-        <v>0.0107</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>89.1088064862766</v>
+        <v>88.9252896429762</v>
       </c>
       <c r="B402" s="1" t="n">
         <v>44228</v>
@@ -31079,15 +31079,15 @@
         <v>77</v>
       </c>
       <c r="D402" t="n">
-        <v>0.0424</v>
+        <v>0.0422</v>
       </c>
       <c r="E402" t="n">
-        <v>-0.0046</v>
+        <v>-0.0054</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>89.5140926837822</v>
+        <v>89.6399264670049</v>
       </c>
       <c r="B403" s="1" t="n">
         <v>44228</v>
@@ -31096,15 +31096,15 @@
         <v>78</v>
       </c>
       <c r="D403" t="n">
-        <v>-0.0288</v>
+        <v>-0.0284</v>
       </c>
       <c r="E403" t="n">
-        <v>-0.0308</v>
+        <v>-0.0304</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>86.7789024072746</v>
+        <v>86.2113084094756</v>
       </c>
       <c r="B404" s="1" t="n">
         <v>44256</v>
@@ -31113,15 +31113,15 @@
         <v>76</v>
       </c>
       <c r="D404" t="n">
-        <v>0.324</v>
+        <v>0.3218</v>
       </c>
       <c r="E404" t="n">
-        <v>-0.0337</v>
+        <v>-0.0514</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>88.7694797324533</v>
+        <v>88.6025763305696</v>
       </c>
       <c r="B405" s="1" t="n">
         <v>44256</v>
@@ -31130,15 +31130,15 @@
         <v>77</v>
       </c>
       <c r="D405" t="n">
-        <v>0.0795</v>
+        <v>0.0788</v>
       </c>
       <c r="E405" t="n">
-        <v>-0.0038</v>
+        <v>-0.0036</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>81.8490131679762</v>
+        <v>81.9223683291642</v>
       </c>
       <c r="B406" s="1" t="n">
         <v>44256</v>
@@ -31147,15 +31147,15 @@
         <v>78</v>
       </c>
       <c r="D406" t="n">
-        <v>0.0478</v>
+        <v>0.0486</v>
       </c>
       <c r="E406" t="n">
-        <v>-0.0856</v>
+        <v>-0.0861</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>88.2715463195621</v>
+        <v>89.5361281603998</v>
       </c>
       <c r="B407" s="1" t="n">
         <v>44287</v>
@@ -31164,15 +31164,15 @@
         <v>76</v>
       </c>
       <c r="D407" t="n">
-        <v>1.1031</v>
+        <v>1.0917</v>
       </c>
       <c r="E407" t="n">
-        <v>0.0172</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>87.6971406325474</v>
+        <v>87.6714672930314</v>
       </c>
       <c r="B408" s="1" t="n">
         <v>44287</v>
@@ -31181,15 +31181,15 @@
         <v>77</v>
       </c>
       <c r="D408" t="n">
-        <v>0.2346</v>
+        <v>0.2347</v>
       </c>
       <c r="E408" t="n">
-        <v>-0.0121</v>
+        <v>-0.0105</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>80.7995040090757</v>
+        <v>81.1436400440314</v>
       </c>
       <c r="B409" s="1" t="n">
         <v>44287</v>
@@ -31198,15 +31198,15 @@
         <v>78</v>
       </c>
       <c r="D409" t="n">
-        <v>0.3928</v>
+        <v>0.391</v>
       </c>
       <c r="E409" t="n">
-        <v>-0.0128</v>
+        <v>-0.0095</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>87.173654343179</v>
+        <v>86.777105100485</v>
       </c>
       <c r="B410" s="1" t="n">
         <v>44317</v>
@@ -31215,15 +31215,15 @@
         <v>76</v>
       </c>
       <c r="D410" t="n">
-        <v>0.7761</v>
+        <v>0.7815</v>
       </c>
       <c r="E410" t="n">
-        <v>-0.0124</v>
+        <v>-0.0308</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>87.5777894571225</v>
+        <v>87.8204573419494</v>
       </c>
       <c r="B411" s="1" t="n">
         <v>44317</v>
@@ -31232,15 +31232,15 @@
         <v>77</v>
       </c>
       <c r="D411" t="n">
-        <v>0.1844</v>
+        <v>0.185</v>
       </c>
       <c r="E411" t="n">
-        <v>-0.0014</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>83.3386238362024</v>
+        <v>82.8281565655931</v>
       </c>
       <c r="B412" s="1" t="n">
         <v>44317</v>
@@ -31249,15 +31249,15 @@
         <v>78</v>
       </c>
       <c r="D412" t="n">
-        <v>0.2757</v>
+        <v>0.2754</v>
       </c>
       <c r="E412" t="n">
-        <v>0.0314</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>90.3603779739313</v>
+        <v>90.3186299769487</v>
       </c>
       <c r="B413" s="1" t="n">
         <v>44348</v>
@@ -31266,15 +31266,15 @@
         <v>76</v>
       </c>
       <c r="D413" t="n">
-        <v>0.5321</v>
+        <v>0.532</v>
       </c>
       <c r="E413" t="n">
-        <v>0.0366</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>87.1206179401692</v>
+        <v>87.1952347602488</v>
       </c>
       <c r="B414" s="1" t="n">
         <v>44348</v>
@@ -31283,15 +31283,15 @@
         <v>77</v>
       </c>
       <c r="D414" t="n">
-        <v>0.121</v>
+        <v>0.1211</v>
       </c>
       <c r="E414" t="n">
-        <v>-0.0052</v>
+        <v>-0.0071</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>82.3841528086139</v>
+        <v>82.2791108717398</v>
       </c>
       <c r="B415" s="1" t="n">
         <v>44348</v>
@@ -31300,15 +31300,15 @@
         <v>78</v>
       </c>
       <c r="D415" t="n">
-        <v>0.0735</v>
+        <v>0.0734</v>
       </c>
       <c r="E415" t="n">
-        <v>-0.0115</v>
+        <v>-0.0066</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>91.1909690045815</v>
+        <v>91.4650519209792</v>
       </c>
       <c r="B416" s="1" t="n">
         <v>44378</v>
@@ -31317,15 +31317,15 @@
         <v>76</v>
       </c>
       <c r="D416" t="n">
-        <v>0.3756</v>
+        <v>0.3758</v>
       </c>
       <c r="E416" t="n">
-        <v>0.0092</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>86.6762164673115</v>
+        <v>86.7289073285243</v>
       </c>
       <c r="B417" s="1" t="n">
         <v>44378</v>
@@ -31334,15 +31334,15 @@
         <v>77</v>
       </c>
       <c r="D417" t="n">
-        <v>0.0016</v>
+        <v>0.0017</v>
       </c>
       <c r="E417" t="n">
-        <v>-0.0051</v>
+        <v>-0.0053</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>81.2624657159839</v>
+        <v>81.1824262371514</v>
       </c>
       <c r="B418" s="1" t="n">
         <v>44378</v>
@@ -31351,15 +31351,15 @@
         <v>78</v>
       </c>
       <c r="D418" t="n">
-        <v>-0.0286</v>
+        <v>-0.0288</v>
       </c>
       <c r="E418" t="n">
-        <v>-0.0136</v>
+        <v>-0.0133</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>88.285202139046</v>
+        <v>88.9613362755655</v>
       </c>
       <c r="B419" s="1" t="n">
         <v>44409</v>
@@ -31368,15 +31368,15 @@
         <v>76</v>
       </c>
       <c r="D419" t="n">
-        <v>0.3481</v>
+        <v>0.3474</v>
       </c>
       <c r="E419" t="n">
-        <v>-0.0319</v>
+        <v>-0.0274</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>86.1117253816294</v>
+        <v>86.1671325313352</v>
       </c>
       <c r="B420" s="1" t="n">
         <v>44409</v>
@@ -31385,7 +31385,7 @@
         <v>77</v>
       </c>
       <c r="D420" t="n">
-        <v>-0.0262</v>
+        <v>-0.0259</v>
       </c>
       <c r="E420" t="n">
         <v>-0.0065</v>
@@ -31393,7 +31393,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>80.9691618446722</v>
+        <v>80.8916302711165</v>
       </c>
       <c r="B421" s="1" t="n">
         <v>44409</v>
@@ -31402,7 +31402,7 @@
         <v>78</v>
       </c>
       <c r="D421" t="n">
-        <v>-0.0619</v>
+        <v>-0.0624</v>
       </c>
       <c r="E421" t="n">
         <v>-0.0036</v>
@@ -31410,7 +31410,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>88.8731205791903</v>
+        <v>89.083476799504</v>
       </c>
       <c r="B422" s="1" t="n">
         <v>44440</v>
@@ -31419,15 +31419,15 @@
         <v>76</v>
       </c>
       <c r="D422" t="n">
-        <v>0.1473</v>
+        <v>0.1471</v>
       </c>
       <c r="E422" t="n">
-        <v>0.0067</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>85.9218485116351</v>
+        <v>85.9552756133754</v>
       </c>
       <c r="B423" s="1" t="n">
         <v>44440</v>
@@ -31436,15 +31436,15 @@
         <v>77</v>
       </c>
       <c r="D423" t="n">
-        <v>-0.0385</v>
+        <v>-0.0384</v>
       </c>
       <c r="E423" t="n">
-        <v>-0.0022</v>
+        <v>-0.0025</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>81.1480140014942</v>
+        <v>81.1254225911488</v>
       </c>
       <c r="B424" s="1" t="n">
         <v>44440</v>
@@ -31453,15 +31453,15 @@
         <v>78</v>
       </c>
       <c r="D424" t="n">
-        <v>-0.1056</v>
+        <v>-0.1057</v>
       </c>
       <c r="E424" t="n">
-        <v>0.0022</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>86.6055064174372</v>
+        <v>87.2042717465064</v>
       </c>
       <c r="B425" s="1" t="n">
         <v>44470</v>
@@ -31470,15 +31470,15 @@
         <v>76</v>
       </c>
       <c r="D425" t="n">
-        <v>0.0892</v>
+        <v>0.0903</v>
       </c>
       <c r="E425" t="n">
-        <v>-0.0255</v>
+        <v>-0.0211</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>84.9078361204586</v>
+        <v>84.9921276107843</v>
       </c>
       <c r="B426" s="1" t="n">
         <v>44470</v>
@@ -31487,15 +31487,15 @@
         <v>77</v>
       </c>
       <c r="D426" t="n">
-        <v>-0.0527</v>
+        <v>-0.0528</v>
       </c>
       <c r="E426" t="n">
-        <v>-0.0118</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>80.1055789432962</v>
+        <v>80.1154944310161</v>
       </c>
       <c r="B427" s="1" t="n">
         <v>44470</v>
@@ -31504,15 +31504,15 @@
         <v>78</v>
       </c>
       <c r="D427" t="n">
-        <v>-0.1223</v>
+        <v>-0.1222</v>
       </c>
       <c r="E427" t="n">
-        <v>-0.0128</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>87.4799576659621</v>
+        <v>87.8660738710532</v>
       </c>
       <c r="B428" s="1" t="n">
         <v>44501</v>
@@ -31521,15 +31521,15 @@
         <v>76</v>
       </c>
       <c r="D428" t="n">
-        <v>0.0422</v>
+        <v>0.0424</v>
       </c>
       <c r="E428" t="n">
-        <v>0.0101</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>85.2094828752429</v>
+        <v>85.2160065251576</v>
       </c>
       <c r="B429" s="1" t="n">
         <v>44501</v>
@@ -31538,15 +31538,15 @@
         <v>77</v>
       </c>
       <c r="D429" t="n">
-        <v>-0.0447</v>
+        <v>-0.0448</v>
       </c>
       <c r="E429" t="n">
-        <v>0.0036</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>80.6645132862966</v>
+        <v>80.7017587930862</v>
       </c>
       <c r="B430" s="1" t="n">
         <v>44501</v>
@@ -31555,15 +31555,15 @@
         <v>78</v>
       </c>
       <c r="D430" t="n">
-        <v>-0.125</v>
+        <v>-0.1247</v>
       </c>
       <c r="E430" t="n">
-        <v>0.007</v>
+        <v>0.0073</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>91.4488634946728</v>
+        <v>90.7339797999365</v>
       </c>
       <c r="B431" s="1" t="n">
         <v>44531</v>
@@ -31572,15 +31572,15 @@
         <v>76</v>
       </c>
       <c r="D431" t="n">
-        <v>0.0281</v>
+        <v>0.026</v>
       </c>
       <c r="E431" t="n">
-        <v>0.0454</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>86.3045264637257</v>
+        <v>86.2771520136647</v>
       </c>
       <c r="B432" s="1" t="n">
         <v>44531</v>
@@ -31589,15 +31589,15 @@
         <v>77</v>
       </c>
       <c r="D432" t="n">
-        <v>-0.0354</v>
+        <v>-0.0355</v>
       </c>
       <c r="E432" t="n">
-        <v>0.0129</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>83.8509635698886</v>
+        <v>83.9526848636881</v>
       </c>
       <c r="B433" s="1" t="n">
         <v>44531</v>
@@ -31606,15 +31606,15 @@
         <v>78</v>
       </c>
       <c r="D433" t="n">
-        <v>-0.0833</v>
+        <v>-0.0828</v>
       </c>
       <c r="E433" t="n">
-        <v>0.0395</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>82.8740462622057</v>
+        <v>83.2692696763111</v>
       </c>
       <c r="B434" s="1" t="n">
         <v>44562</v>
@@ -31623,15 +31623,15 @@
         <v>76</v>
       </c>
       <c r="D434" t="n">
-        <v>-0.0673</v>
+        <v>-0.0671</v>
       </c>
       <c r="E434" t="n">
-        <v>-0.0938</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>84.8143204081846</v>
+        <v>84.6946595062435</v>
       </c>
       <c r="B435" s="1" t="n">
         <v>44562</v>
@@ -31640,15 +31640,15 @@
         <v>77</v>
       </c>
       <c r="D435" t="n">
-        <v>-0.0526</v>
+        <v>-0.0527</v>
       </c>
       <c r="E435" t="n">
-        <v>-0.0173</v>
+        <v>-0.0183</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>82.6092378309642</v>
+        <v>82.7205198555667</v>
       </c>
       <c r="B436" s="1" t="n">
         <v>44562</v>
@@ -31657,15 +31657,15 @@
         <v>78</v>
       </c>
       <c r="D436" t="n">
-        <v>-0.1056</v>
+        <v>-0.1053</v>
       </c>
       <c r="E436" t="n">
-        <v>-0.0148</v>
+        <v>-0.0147</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>84.39547811827</v>
+        <v>85.6752889118177</v>
       </c>
       <c r="B437" s="1" t="n">
         <v>44593</v>
@@ -31674,15 +31674,15 @@
         <v>76</v>
       </c>
       <c r="D437" t="n">
-        <v>-0.0602</v>
+        <v>-0.0573</v>
       </c>
       <c r="E437" t="n">
-        <v>0.0184</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>86.7515272362297</v>
+        <v>86.5654534690155</v>
       </c>
       <c r="B438" s="1" t="n">
         <v>44593</v>
@@ -31694,12 +31694,12 @@
         <v>-0.0265</v>
       </c>
       <c r="E438" t="n">
-        <v>0.0228</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>82.7423394473057</v>
+        <v>82.8961831271016</v>
       </c>
       <c r="B439" s="1" t="n">
         <v>44593</v>
@@ -31708,15 +31708,15 @@
         <v>78</v>
       </c>
       <c r="D439" t="n">
-        <v>-0.0757</v>
+        <v>-0.0752</v>
       </c>
       <c r="E439" t="n">
-        <v>0.0016</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>92.8754427667548</v>
+        <v>92.159152694766</v>
       </c>
       <c r="B440" s="1" t="n">
         <v>44621</v>
@@ -31725,15 +31725,15 @@
         <v>76</v>
       </c>
       <c r="D440" t="n">
-        <v>0.0703</v>
+        <v>0.069</v>
       </c>
       <c r="E440" t="n">
-        <v>0.1005</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>87.3159789385839</v>
+        <v>87.1867179487028</v>
       </c>
       <c r="B441" s="1" t="n">
         <v>44621</v>
@@ -31742,15 +31742,15 @@
         <v>77</v>
       </c>
       <c r="D441" t="n">
-        <v>-0.0164</v>
+        <v>-0.016</v>
       </c>
       <c r="E441" t="n">
-        <v>0.0065</v>
+        <v>0.0072</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>80.1837658432474</v>
+        <v>80.2857015100992</v>
       </c>
       <c r="B442" s="1" t="n">
         <v>44621</v>
@@ -31759,15 +31759,15 @@
         <v>78</v>
       </c>
       <c r="D442" t="n">
-        <v>-0.0203</v>
+        <v>-0.02</v>
       </c>
       <c r="E442" t="n">
-        <v>-0.0309</v>
+        <v>-0.0315</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>84.3661914228686</v>
+        <v>85.900629023198</v>
       </c>
       <c r="B443" s="1" t="n">
         <v>44652</v>
@@ -31776,15 +31776,15 @@
         <v>76</v>
       </c>
       <c r="D443" t="n">
-        <v>-0.0442</v>
+        <v>-0.0406</v>
       </c>
       <c r="E443" t="n">
-        <v>-0.0916</v>
+        <v>-0.0679</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>88.0123549438187</v>
+        <v>87.9356853714556</v>
       </c>
       <c r="B444" s="1" t="n">
         <v>44652</v>
@@ -31793,15 +31793,15 @@
         <v>77</v>
       </c>
       <c r="D444" t="n">
-        <v>0.0036</v>
+        <v>0.003</v>
       </c>
       <c r="E444" t="n">
-        <v>0.008</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>82.0806598206655</v>
+        <v>82.3870992700459</v>
       </c>
       <c r="B445" s="1" t="n">
         <v>44652</v>
@@ -31810,10 +31810,61 @@
         <v>78</v>
       </c>
       <c r="D445" t="n">
-        <v>0.0159</v>
+        <v>0.0153</v>
       </c>
       <c r="E445" t="n">
-        <v>0.0237</v>
+        <v>0.0262</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>92.221958959103</v>
+      </c>
+      <c r="B446" s="1" t="n">
+        <v>44682</v>
+      </c>
+      <c r="C446" t="s">
+        <v>76</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0.0627</v>
+      </c>
+      <c r="E446" t="n">
+        <v>0.0736</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>86.7846456755323</v>
+      </c>
+      <c r="B447" s="1" t="n">
+        <v>44682</v>
+      </c>
+      <c r="C447" t="s">
+        <v>77</v>
+      </c>
+      <c r="D447" t="n">
+        <v>-0.0118</v>
+      </c>
+      <c r="E447" t="n">
+        <v>-0.0131</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>82.5651540218821</v>
+      </c>
+      <c r="B448" s="1" t="n">
+        <v>44682</v>
+      </c>
+      <c r="C448" t="s">
+        <v>78</v>
+      </c>
+      <c r="D448" t="n">
+        <v>-0.0032</v>
+      </c>
+      <c r="E448" t="n">
+        <v>0.0022</v>
       </c>
     </row>
   </sheetData>
